--- a/data/counties.xlsx
+++ b/data/counties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexi\Desktop\PPOL683\final_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC90814-8C29-469C-9711-F5708FDCF61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4BDBCA-FFF6-44BA-95D9-EF34995EFC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="213" windowWidth="11720" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9441" uniqueCount="2539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9551" uniqueCount="2539">
   <si>
     <t>fips</t>
   </si>
@@ -8482,8 +8482,8 @@
   <dimension ref="A1:H3144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1501" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1525" sqref="G1525"/>
+      <pane ySplit="1" topLeftCell="A1977" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1992" sqref="G1992"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -38760,102 +38760,96 @@
     </row>
     <row r="1403" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1403">
-        <v>29005</v>
+        <v>29017</v>
       </c>
       <c r="B1403" t="s">
-        <v>862</v>
+        <v>1304</v>
       </c>
       <c r="C1403" t="s">
         <v>1298</v>
       </c>
-      <c r="D1403" t="s">
-        <v>10</v>
-      </c>
       <c r="E1403">
         <v>0</v>
       </c>
       <c r="F1403">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1403" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
     </row>
     <row r="1404" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1404">
-        <v>29009</v>
+        <v>29021</v>
       </c>
       <c r="B1404" t="s">
-        <v>1161</v>
+        <v>609</v>
       </c>
       <c r="C1404" t="s">
         <v>1298</v>
       </c>
-      <c r="D1404" t="s">
-        <v>10</v>
-      </c>
       <c r="E1404">
         <v>0</v>
       </c>
       <c r="F1404">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1404" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
     </row>
     <row r="1405" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1405">
-        <v>29011</v>
+        <v>29023</v>
       </c>
       <c r="B1405" t="s">
-        <v>864</v>
+        <v>55</v>
       </c>
       <c r="C1405" t="s">
         <v>1298</v>
       </c>
       <c r="D1405" t="s">
-        <v>10</v>
+        <v>1305</v>
       </c>
       <c r="E1405">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1405">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1405" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
     </row>
     <row r="1406" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1406">
-        <v>29013</v>
+        <v>29031</v>
       </c>
       <c r="B1406" t="s">
-        <v>1303</v>
+        <v>1308</v>
       </c>
       <c r="C1406" t="s">
         <v>1298</v>
       </c>
       <c r="D1406" t="s">
-        <v>10</v>
+        <v>1309</v>
       </c>
       <c r="E1406">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1406">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1406" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
     </row>
     <row r="1407" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1407">
-        <v>29015</v>
+        <v>29033</v>
       </c>
       <c r="B1407" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C1407" t="s">
         <v>1298</v>
@@ -38864,84 +38858,81 @@
         <v>0</v>
       </c>
       <c r="F1407">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G1407" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="1408" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1408">
-        <v>29001</v>
+        <v>29035</v>
       </c>
       <c r="B1408" t="s">
-        <v>601</v>
+        <v>964</v>
       </c>
       <c r="C1408" t="s">
         <v>1298</v>
       </c>
-      <c r="D1408" t="s">
-        <v>1299</v>
-      </c>
       <c r="E1408">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1408">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1408" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
     </row>
     <row r="1409" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1409">
-        <v>29003</v>
+        <v>29039</v>
       </c>
       <c r="B1409" t="s">
-        <v>1300</v>
+        <v>615</v>
       </c>
       <c r="C1409" t="s">
         <v>1298</v>
       </c>
-      <c r="D1409" t="s">
-        <v>10</v>
-      </c>
       <c r="E1409">
         <v>0</v>
       </c>
       <c r="F1409">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1409" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
     </row>
     <row r="1410" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1410">
-        <v>29007</v>
+        <v>29047</v>
       </c>
       <c r="B1410" t="s">
-        <v>1301</v>
+        <v>65</v>
       </c>
       <c r="C1410" t="s">
         <v>1298</v>
       </c>
       <c r="D1410" t="s">
-        <v>1302</v>
+        <v>1311</v>
       </c>
       <c r="E1410">
         <v>1</v>
       </c>
       <c r="F1410">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1410" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
     </row>
     <row r="1411" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1411">
-        <v>29019</v>
+        <v>29055</v>
       </c>
       <c r="B1411" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C1411" t="s">
         <v>1298</v>
@@ -38950,38 +38941,38 @@
         <v>0</v>
       </c>
       <c r="F1411">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G1411" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="1412" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1412">
-        <v>29025</v>
+        <v>29065</v>
       </c>
       <c r="B1412" t="s">
-        <v>959</v>
+        <v>1317</v>
       </c>
       <c r="C1412" t="s">
         <v>1298</v>
       </c>
-      <c r="D1412" t="s">
-        <v>1306</v>
-      </c>
       <c r="E1412">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1412">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1412" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
     </row>
     <row r="1413" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1413">
-        <v>29027</v>
+        <v>29079</v>
       </c>
       <c r="B1413" t="s">
-        <v>1307</v>
+        <v>628</v>
       </c>
       <c r="C1413" t="s">
         <v>1298</v>
@@ -38990,15 +38981,18 @@
         <v>0</v>
       </c>
       <c r="F1413">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G1413" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="1414" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1414">
-        <v>29029</v>
+        <v>29083</v>
       </c>
       <c r="B1414" t="s">
-        <v>497</v>
+        <v>86</v>
       </c>
       <c r="C1414" t="s">
         <v>1298</v>
@@ -39007,15 +39001,18 @@
         <v>0</v>
       </c>
       <c r="F1414">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G1414" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="1415" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1415">
-        <v>29037</v>
+        <v>29091</v>
       </c>
       <c r="B1415" t="s">
-        <v>613</v>
+        <v>1323</v>
       </c>
       <c r="C1415" t="s">
         <v>1298</v>
@@ -39024,32 +39021,41 @@
         <v>0</v>
       </c>
       <c r="F1415">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G1415" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="1416" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1416">
-        <v>29041</v>
+        <v>29099</v>
       </c>
       <c r="B1416" t="s">
-        <v>1310</v>
+        <v>89</v>
       </c>
       <c r="C1416" t="s">
         <v>1298</v>
       </c>
+      <c r="D1416" t="s">
+        <v>1325</v>
+      </c>
       <c r="E1416">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1416">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G1416" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="1417" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1417">
-        <v>29043</v>
+        <v>29101</v>
       </c>
       <c r="B1417" t="s">
-        <v>728</v>
+        <v>157</v>
       </c>
       <c r="C1417" t="s">
         <v>1298</v>
@@ -39058,15 +39064,18 @@
         <v>0</v>
       </c>
       <c r="F1417">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G1417" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="1418" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1418">
-        <v>29045</v>
+        <v>29117</v>
       </c>
       <c r="B1418" t="s">
-        <v>138</v>
+        <v>763</v>
       </c>
       <c r="C1418" t="s">
         <v>1298</v>
@@ -39075,15 +39084,18 @@
         <v>0</v>
       </c>
       <c r="F1418">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G1418" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="1419" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1419">
-        <v>29049</v>
+        <v>29123</v>
       </c>
       <c r="B1419" t="s">
-        <v>619</v>
+        <v>99</v>
       </c>
       <c r="C1419" t="s">
         <v>1298</v>
@@ -39092,38 +39104,38 @@
         <v>0</v>
       </c>
       <c r="F1419">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G1419" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="1420" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1420">
-        <v>29051</v>
+        <v>29141</v>
       </c>
       <c r="B1420" t="s">
-        <v>1312</v>
+        <v>109</v>
       </c>
       <c r="C1420" t="s">
         <v>1298</v>
       </c>
-      <c r="D1420" t="s">
-        <v>1313</v>
-      </c>
       <c r="E1420">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1420">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1420" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
     </row>
     <row r="1421" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1421">
-        <v>29053</v>
+        <v>29155</v>
       </c>
       <c r="B1421" t="s">
-        <v>1314</v>
+        <v>1336</v>
       </c>
       <c r="C1421" t="s">
         <v>1298</v>
@@ -39132,61 +39144,64 @@
         <v>0</v>
       </c>
       <c r="F1421">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G1421" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="1422" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1422">
-        <v>29057</v>
+        <v>29161</v>
       </c>
       <c r="B1422" t="s">
-        <v>513</v>
+        <v>1338</v>
       </c>
       <c r="C1422" t="s">
         <v>1298</v>
       </c>
       <c r="D1422" t="s">
-        <v>1315</v>
+        <v>1339</v>
       </c>
       <c r="E1422">
         <v>1</v>
       </c>
       <c r="F1422">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1422" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
     </row>
     <row r="1423" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1423">
-        <v>29059</v>
+        <v>29165</v>
       </c>
       <c r="B1423" t="s">
-        <v>75</v>
+        <v>1341</v>
       </c>
       <c r="C1423" t="s">
         <v>1298</v>
       </c>
       <c r="D1423" t="s">
-        <v>1316</v>
+        <v>1342</v>
       </c>
       <c r="E1423">
         <v>1</v>
       </c>
       <c r="F1423">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1423" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
     </row>
     <row r="1424" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1424">
-        <v>29061</v>
+        <v>29167</v>
       </c>
       <c r="B1424" t="s">
-        <v>809</v>
+        <v>170</v>
       </c>
       <c r="C1424" t="s">
         <v>1298</v>
@@ -39195,15 +39210,18 @@
         <v>0</v>
       </c>
       <c r="F1424">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1425" spans="1:8" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="G1424" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1425">
-        <v>29063</v>
+        <v>29169</v>
       </c>
       <c r="B1425" t="s">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="C1425" t="s">
         <v>1298</v>
@@ -39212,18 +39230,18 @@
         <v>0</v>
       </c>
       <c r="F1425">
-        <v>1</v>
-      </c>
-      <c r="H1425" t="s">
-        <v>2538</v>
-      </c>
-    </row>
-    <row r="1426" spans="1:8" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="G1425" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1426">
-        <v>29067</v>
+        <v>29173</v>
       </c>
       <c r="B1426" t="s">
-        <v>337</v>
+        <v>1343</v>
       </c>
       <c r="C1426" t="s">
         <v>1298</v>
@@ -39232,15 +39250,18 @@
         <v>0</v>
       </c>
       <c r="F1426">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1427" spans="1:8" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="G1426" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1427">
-        <v>29069</v>
+        <v>29179</v>
       </c>
       <c r="B1427" t="s">
-        <v>1318</v>
+        <v>1346</v>
       </c>
       <c r="C1427" t="s">
         <v>1298</v>
@@ -39249,15 +39270,18 @@
         <v>0</v>
       </c>
       <c r="F1427">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1428" spans="1:8" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="G1427" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1428">
-        <v>29071</v>
+        <v>29181</v>
       </c>
       <c r="B1428" t="s">
-        <v>82</v>
+        <v>838</v>
       </c>
       <c r="C1428" t="s">
         <v>1298</v>
@@ -39266,15 +39290,18 @@
         <v>0</v>
       </c>
       <c r="F1428">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1429" spans="1:8" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="G1428" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1429">
-        <v>29073</v>
+        <v>29203</v>
       </c>
       <c r="B1429" t="s">
-        <v>1319</v>
+        <v>1348</v>
       </c>
       <c r="C1429" t="s">
         <v>1298</v>
@@ -39283,35 +39310,41 @@
         <v>0</v>
       </c>
       <c r="F1429">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1430" spans="1:8" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="G1429" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1430">
-        <v>29075</v>
+        <v>29183</v>
       </c>
       <c r="B1430" t="s">
-        <v>1320</v>
+        <v>1349</v>
       </c>
       <c r="C1430" t="s">
         <v>1298</v>
       </c>
+      <c r="D1430" t="s">
+        <v>1350</v>
+      </c>
       <c r="E1430">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1430">
-        <v>1</v>
-      </c>
-      <c r="H1430" t="s">
-        <v>2538</v>
-      </c>
-    </row>
-    <row r="1431" spans="1:8" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="G1430" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1431">
-        <v>29077</v>
+        <v>29185</v>
       </c>
       <c r="B1431" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="C1431" t="s">
         <v>1298</v>
@@ -39320,15 +39353,18 @@
         <v>0</v>
       </c>
       <c r="F1431">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1432" spans="1:8" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="G1431" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1432">
-        <v>29081</v>
+        <v>29207</v>
       </c>
       <c r="B1432" t="s">
-        <v>632</v>
+        <v>1355</v>
       </c>
       <c r="C1432" t="s">
         <v>1298</v>
@@ -39337,15 +39373,18 @@
         <v>0</v>
       </c>
       <c r="F1432">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1433" spans="1:8" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="G1432" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1433">
-        <v>29085</v>
+        <v>29217</v>
       </c>
       <c r="B1433" t="s">
-        <v>1321</v>
+        <v>1359</v>
       </c>
       <c r="C1433" t="s">
         <v>1298</v>
@@ -39354,15 +39393,18 @@
         <v>0</v>
       </c>
       <c r="F1433">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1434" spans="1:8" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="G1433" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1434">
-        <v>29087</v>
+        <v>29223</v>
       </c>
       <c r="B1434" t="s">
-        <v>1322</v>
+        <v>587</v>
       </c>
       <c r="C1434" t="s">
         <v>1298</v>
@@ -39371,15 +39413,18 @@
         <v>0</v>
       </c>
       <c r="F1434">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1435" spans="1:8" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="G1434" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1435">
-        <v>29089</v>
+        <v>29225</v>
       </c>
       <c r="B1435" t="s">
-        <v>154</v>
+        <v>588</v>
       </c>
       <c r="C1435" t="s">
         <v>1298</v>
@@ -39388,41 +39433,50 @@
         <v>0</v>
       </c>
       <c r="F1435">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1436" spans="1:8" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="G1435" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1436">
-        <v>29093</v>
+        <v>29001</v>
       </c>
       <c r="B1436" t="s">
-        <v>1186</v>
+        <v>601</v>
       </c>
       <c r="C1436" t="s">
         <v>1298</v>
       </c>
+      <c r="D1436" t="s">
+        <v>1299</v>
+      </c>
       <c r="E1436">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1436">
         <v>1</v>
       </c>
-    </row>
-    <row r="1437" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="G1436" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1437">
-        <v>29095</v>
+        <v>29003</v>
       </c>
       <c r="B1437" t="s">
-        <v>88</v>
+        <v>1300</v>
       </c>
       <c r="C1437" t="s">
         <v>1298</v>
       </c>
       <c r="D1437" t="s">
-        <v>1324</v>
+        <v>10</v>
       </c>
       <c r="E1437">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1437">
         <v>1</v>
@@ -39431,97 +39485,127 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1438" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="1438" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1438">
-        <v>29097</v>
+        <v>29005</v>
       </c>
       <c r="B1438" t="s">
-        <v>543</v>
+        <v>862</v>
       </c>
       <c r="C1438" t="s">
         <v>1298</v>
       </c>
+      <c r="D1438" t="s">
+        <v>10</v>
+      </c>
       <c r="E1438">
         <v>0</v>
       </c>
       <c r="F1438">
         <v>1</v>
       </c>
-    </row>
-    <row r="1439" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="G1438" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1439">
-        <v>29103</v>
+        <v>29007</v>
       </c>
       <c r="B1439" t="s">
-        <v>757</v>
+        <v>1301</v>
       </c>
       <c r="C1439" t="s">
         <v>1298</v>
       </c>
+      <c r="D1439" t="s">
+        <v>1302</v>
+      </c>
       <c r="E1439">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1439">
         <v>1</v>
       </c>
-    </row>
-    <row r="1440" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="G1439" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1440">
-        <v>29105</v>
+        <v>29009</v>
       </c>
       <c r="B1440" t="s">
-        <v>1326</v>
+        <v>1161</v>
       </c>
       <c r="C1440" t="s">
         <v>1298</v>
       </c>
+      <c r="D1440" t="s">
+        <v>10</v>
+      </c>
       <c r="E1440">
         <v>0</v>
       </c>
       <c r="F1440">
         <v>1</v>
+      </c>
+      <c r="G1440" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1441" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1441">
-        <v>29107</v>
+        <v>29011</v>
       </c>
       <c r="B1441" t="s">
-        <v>158</v>
+        <v>864</v>
       </c>
       <c r="C1441" t="s">
         <v>1298</v>
       </c>
+      <c r="D1441" t="s">
+        <v>10</v>
+      </c>
       <c r="E1441">
         <v>0</v>
       </c>
       <c r="F1441">
         <v>1</v>
+      </c>
+      <c r="G1441" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1442" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1442">
-        <v>29109</v>
+        <v>29013</v>
       </c>
       <c r="B1442" t="s">
-        <v>93</v>
+        <v>1303</v>
       </c>
       <c r="C1442" t="s">
         <v>1298</v>
       </c>
+      <c r="D1442" t="s">
+        <v>10</v>
+      </c>
       <c r="E1442">
         <v>0</v>
       </c>
       <c r="F1442">
         <v>1</v>
+      </c>
+      <c r="G1442" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1443" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1443">
-        <v>29111</v>
+        <v>29015</v>
       </c>
       <c r="B1443" t="s">
-        <v>708</v>
+        <v>133</v>
       </c>
       <c r="C1443" t="s">
         <v>1298</v>
@@ -39535,73 +39619,67 @@
     </row>
     <row r="1444" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1444">
-        <v>29113</v>
+        <v>29019</v>
       </c>
       <c r="B1444" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="C1444" t="s">
         <v>1298</v>
       </c>
-      <c r="D1444" t="s">
-        <v>1327</v>
-      </c>
       <c r="E1444">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1444">
         <v>1</v>
-      </c>
-      <c r="G1444" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="1445" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1445">
-        <v>29115</v>
+        <v>29025</v>
       </c>
       <c r="B1445" t="s">
-        <v>641</v>
+        <v>959</v>
       </c>
       <c r="C1445" t="s">
         <v>1298</v>
       </c>
+      <c r="D1445" t="s">
+        <v>1306</v>
+      </c>
       <c r="E1445">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1445">
         <v>1</v>
+      </c>
+      <c r="G1445" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1446" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1446">
-        <v>29121</v>
+        <v>29027</v>
       </c>
       <c r="B1446" t="s">
-        <v>98</v>
+        <v>1307</v>
       </c>
       <c r="C1446" t="s">
         <v>1298</v>
       </c>
-      <c r="D1446" t="s">
-        <v>1328</v>
-      </c>
       <c r="E1446">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1446">
         <v>1</v>
-      </c>
-      <c r="G1446" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="1447" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1447">
-        <v>29125</v>
+        <v>29029</v>
       </c>
       <c r="B1447" t="s">
-        <v>1329</v>
+        <v>497</v>
       </c>
       <c r="C1447" t="s">
         <v>1298</v>
@@ -39615,10 +39693,10 @@
     </row>
     <row r="1448" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1448">
-        <v>29127</v>
+        <v>29037</v>
       </c>
       <c r="B1448" t="s">
-        <v>101</v>
+        <v>613</v>
       </c>
       <c r="C1448" t="s">
         <v>1298</v>
@@ -39632,10 +39710,10 @@
     </row>
     <row r="1449" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1449">
-        <v>29119</v>
+        <v>29041</v>
       </c>
       <c r="B1449" t="s">
-        <v>1330</v>
+        <v>1310</v>
       </c>
       <c r="C1449" t="s">
         <v>1298</v>
@@ -39649,10 +39727,10 @@
     </row>
     <row r="1450" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1450">
-        <v>29129</v>
+        <v>29043</v>
       </c>
       <c r="B1450" t="s">
-        <v>776</v>
+        <v>728</v>
       </c>
       <c r="C1450" t="s">
         <v>1298</v>
@@ -39666,10 +39744,10 @@
     </row>
     <row r="1451" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1451">
-        <v>29131</v>
+        <v>29045</v>
       </c>
       <c r="B1451" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="C1451" t="s">
         <v>1298</v>
@@ -39683,10 +39761,10 @@
     </row>
     <row r="1452" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1452">
-        <v>29133</v>
+        <v>29049</v>
       </c>
       <c r="B1452" t="s">
-        <v>164</v>
+        <v>619</v>
       </c>
       <c r="C1452" t="s">
         <v>1298</v>
@@ -39700,27 +39778,33 @@
     </row>
     <row r="1453" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1453">
-        <v>29135</v>
+        <v>29051</v>
       </c>
       <c r="B1453" t="s">
-        <v>1331</v>
+        <v>1312</v>
       </c>
       <c r="C1453" t="s">
         <v>1298</v>
       </c>
+      <c r="D1453" t="s">
+        <v>1313</v>
+      </c>
       <c r="E1453">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1453">
         <v>1</v>
+      </c>
+      <c r="G1453" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1454" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1454">
-        <v>29137</v>
+        <v>29053</v>
       </c>
       <c r="B1454" t="s">
-        <v>106</v>
+        <v>1314</v>
       </c>
       <c r="C1454" t="s">
         <v>1298</v>
@@ -39734,44 +39818,56 @@
     </row>
     <row r="1455" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1455">
-        <v>29139</v>
+        <v>29057</v>
       </c>
       <c r="B1455" t="s">
-        <v>107</v>
+        <v>513</v>
       </c>
       <c r="C1455" t="s">
         <v>1298</v>
       </c>
+      <c r="D1455" t="s">
+        <v>1315</v>
+      </c>
       <c r="E1455">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1455">
         <v>1</v>
+      </c>
+      <c r="G1455" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1456" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1456">
-        <v>29143</v>
+        <v>29059</v>
       </c>
       <c r="B1456" t="s">
-        <v>1332</v>
+        <v>75</v>
       </c>
       <c r="C1456" t="s">
         <v>1298</v>
       </c>
+      <c r="D1456" t="s">
+        <v>1316</v>
+      </c>
       <c r="E1456">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1456">
         <v>1</v>
       </c>
-    </row>
-    <row r="1457" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="G1456" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1457">
-        <v>29145</v>
+        <v>29061</v>
       </c>
       <c r="B1457" t="s">
-        <v>166</v>
+        <v>809</v>
       </c>
       <c r="C1457" t="s">
         <v>1298</v>
@@ -39783,12 +39879,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1458" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1458" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1458">
-        <v>29147</v>
+        <v>29063</v>
       </c>
       <c r="B1458" t="s">
-        <v>1333</v>
+        <v>76</v>
       </c>
       <c r="C1458" t="s">
         <v>1298</v>
@@ -39799,13 +39895,16 @@
       <c r="F1458">
         <v>1</v>
       </c>
-    </row>
-    <row r="1459" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H1458" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1459">
-        <v>29149</v>
+        <v>29067</v>
       </c>
       <c r="B1459" t="s">
-        <v>1334</v>
+        <v>337</v>
       </c>
       <c r="C1459" t="s">
         <v>1298</v>
@@ -39817,12 +39916,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1460" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1460" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1460">
-        <v>29151</v>
+        <v>29069</v>
       </c>
       <c r="B1460" t="s">
-        <v>908</v>
+        <v>1318</v>
       </c>
       <c r="C1460" t="s">
         <v>1298</v>
@@ -39834,12 +39933,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1461" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1461" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1461">
-        <v>29153</v>
+        <v>29071</v>
       </c>
       <c r="B1461" t="s">
-        <v>1335</v>
+        <v>82</v>
       </c>
       <c r="C1461" t="s">
         <v>1298</v>
@@ -39851,12 +39950,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1462" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1462" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1462">
-        <v>29157</v>
+        <v>29073</v>
       </c>
       <c r="B1462" t="s">
-        <v>111</v>
+        <v>1319</v>
       </c>
       <c r="C1462" t="s">
         <v>1298</v>
@@ -39868,12 +39967,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1463" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1463" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1463">
-        <v>29159</v>
+        <v>29075</v>
       </c>
       <c r="B1463" t="s">
-        <v>1337</v>
+        <v>1320</v>
       </c>
       <c r="C1463" t="s">
         <v>1298</v>
@@ -39884,36 +39983,33 @@
       <c r="F1463">
         <v>1</v>
       </c>
-    </row>
-    <row r="1464" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="H1463" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1464">
-        <v>29163</v>
+        <v>29077</v>
       </c>
       <c r="B1464" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="C1464" t="s">
         <v>1298</v>
       </c>
-      <c r="D1464" t="s">
-        <v>1340</v>
-      </c>
       <c r="E1464">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1464">
         <v>1</v>
       </c>
-      <c r="G1464" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1465" spans="1:7" x14ac:dyDescent="0.5">
+    </row>
+    <row r="1465" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1465">
-        <v>29171</v>
+        <v>29081</v>
       </c>
       <c r="B1465" t="s">
-        <v>465</v>
+        <v>632</v>
       </c>
       <c r="C1465" t="s">
         <v>1298</v>
@@ -39925,35 +40021,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1466" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1466" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1466">
-        <v>29175</v>
+        <v>29085</v>
       </c>
       <c r="B1466" t="s">
-        <v>114</v>
+        <v>1321</v>
       </c>
       <c r="C1466" t="s">
         <v>1298</v>
       </c>
-      <c r="D1466" t="s">
-        <v>1344</v>
-      </c>
       <c r="E1466">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1466">
         <v>1</v>
       </c>
-      <c r="G1466" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1467" spans="1:7" x14ac:dyDescent="0.5">
+    </row>
+    <row r="1467" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1467">
-        <v>29177</v>
+        <v>29087</v>
       </c>
       <c r="B1467" t="s">
-        <v>1345</v>
+        <v>1322</v>
       </c>
       <c r="C1467" t="s">
         <v>1298</v>
@@ -39965,12 +40055,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1468" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1468" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1468">
-        <v>29195</v>
+        <v>29089</v>
       </c>
       <c r="B1468" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="C1468" t="s">
         <v>1298</v>
@@ -39982,12 +40072,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1469" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1469" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1469">
-        <v>29197</v>
+        <v>29093</v>
       </c>
       <c r="B1469" t="s">
-        <v>788</v>
+        <v>1186</v>
       </c>
       <c r="C1469" t="s">
         <v>1298</v>
@@ -39999,29 +40089,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1470" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1470" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1470">
-        <v>29199</v>
+        <v>29095</v>
       </c>
       <c r="B1470" t="s">
-        <v>1347</v>
+        <v>88</v>
       </c>
       <c r="C1470" t="s">
         <v>1298</v>
       </c>
+      <c r="D1470" t="s">
+        <v>1324</v>
+      </c>
       <c r="E1470">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1470">
         <v>1</v>
       </c>
-    </row>
-    <row r="1471" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="G1470" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1471">
-        <v>29201</v>
+        <v>29097</v>
       </c>
       <c r="B1471" t="s">
-        <v>175</v>
+        <v>543</v>
       </c>
       <c r="C1471" t="s">
         <v>1298</v>
@@ -40033,12 +40129,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1472" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1472" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1472">
-        <v>29205</v>
+        <v>29103</v>
       </c>
       <c r="B1472" t="s">
-        <v>116</v>
+        <v>757</v>
       </c>
       <c r="C1472" t="s">
         <v>1298</v>
@@ -40050,12 +40146,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1473" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="1473" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1473">
-        <v>29187</v>
+        <v>29105</v>
       </c>
       <c r="B1473" t="s">
-        <v>1351</v>
+        <v>1326</v>
       </c>
       <c r="C1473" t="s">
         <v>1298</v>
@@ -40067,35 +40163,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1474" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="1474" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1474">
-        <v>29189</v>
+        <v>29107</v>
       </c>
       <c r="B1474" t="s">
-        <v>1286</v>
+        <v>158</v>
       </c>
       <c r="C1474" t="s">
         <v>1298</v>
       </c>
-      <c r="D1474" t="s">
-        <v>1353</v>
-      </c>
       <c r="E1474">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1474">
         <v>1</v>
       </c>
-      <c r="G1474" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1475" spans="1:8" x14ac:dyDescent="0.5">
+    </row>
+    <row r="1475" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1475">
-        <v>29186</v>
+        <v>29109</v>
       </c>
       <c r="B1475" t="s">
-        <v>1354</v>
+        <v>93</v>
       </c>
       <c r="C1475" t="s">
         <v>1298</v>
@@ -40107,12 +40197,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1476" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="1476" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1476">
-        <v>29209</v>
+        <v>29111</v>
       </c>
       <c r="B1476" t="s">
-        <v>181</v>
+        <v>708</v>
       </c>
       <c r="C1476" t="s">
         <v>1298</v>
@@ -40124,92 +40214,92 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1477" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="1477" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1477">
-        <v>29211</v>
+        <v>29113</v>
       </c>
       <c r="B1477" t="s">
-        <v>845</v>
+        <v>159</v>
       </c>
       <c r="C1477" t="s">
         <v>1298</v>
       </c>
+      <c r="D1477" t="s">
+        <v>1327</v>
+      </c>
       <c r="E1477">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1477">
         <v>1</v>
       </c>
-    </row>
-    <row r="1478" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="G1477" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1478">
-        <v>29213</v>
+        <v>29115</v>
       </c>
       <c r="B1478" t="s">
-        <v>1356</v>
+        <v>641</v>
       </c>
       <c r="C1478" t="s">
         <v>1298</v>
       </c>
-      <c r="D1478" t="s">
-        <v>1357</v>
-      </c>
       <c r="E1478">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1478">
         <v>1</v>
       </c>
-      <c r="G1478" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1479" spans="1:8" x14ac:dyDescent="0.5">
+    </row>
+    <row r="1479" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1479">
-        <v>29215</v>
+        <v>29121</v>
       </c>
       <c r="B1479" t="s">
-        <v>1358</v>
+        <v>98</v>
       </c>
       <c r="C1479" t="s">
         <v>1298</v>
       </c>
+      <c r="D1479" t="s">
+        <v>1328</v>
+      </c>
       <c r="E1479">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1479">
         <v>1</v>
       </c>
-    </row>
-    <row r="1480" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="G1479" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1480">
-        <v>29219</v>
+        <v>29125</v>
       </c>
       <c r="B1480" t="s">
-        <v>586</v>
+        <v>1329</v>
       </c>
       <c r="C1480" t="s">
         <v>1298</v>
       </c>
-      <c r="D1480" t="s">
-        <v>1360</v>
-      </c>
       <c r="E1480">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1480">
         <v>1</v>
       </c>
-      <c r="G1480" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1481" spans="1:8" x14ac:dyDescent="0.5">
+    </row>
+    <row r="1481" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1481">
-        <v>29221</v>
+        <v>29127</v>
       </c>
       <c r="B1481" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="C1481" t="s">
         <v>1298</v>
@@ -40221,12 +40311,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1482" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="1482" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1482">
-        <v>29227</v>
+        <v>29119</v>
       </c>
       <c r="B1482" t="s">
-        <v>593</v>
+        <v>1330</v>
       </c>
       <c r="C1482" t="s">
         <v>1298</v>
@@ -40237,16 +40327,13 @@
       <c r="F1482">
         <v>1</v>
       </c>
-      <c r="H1482" t="s">
-        <v>2538</v>
-      </c>
-    </row>
-    <row r="1483" spans="1:8" x14ac:dyDescent="0.5">
+    </row>
+    <row r="1483" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1483">
-        <v>29229</v>
+        <v>29129</v>
       </c>
       <c r="B1483" t="s">
-        <v>677</v>
+        <v>776</v>
       </c>
       <c r="C1483" t="s">
         <v>1298</v>
@@ -40258,12 +40345,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1484" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="1484" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1484">
-        <v>29017</v>
+        <v>29131</v>
       </c>
       <c r="B1484" t="s">
-        <v>1304</v>
+        <v>163</v>
       </c>
       <c r="C1484" t="s">
         <v>1298</v>
@@ -40272,18 +40359,15 @@
         <v>0</v>
       </c>
       <c r="F1484">
-        <v>0</v>
-      </c>
-      <c r="G1484" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="1485" spans="1:8" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1485">
-        <v>29021</v>
+        <v>29133</v>
       </c>
       <c r="B1485" t="s">
-        <v>609</v>
+        <v>164</v>
       </c>
       <c r="C1485" t="s">
         <v>1298</v>
@@ -40292,64 +40376,49 @@
         <v>0</v>
       </c>
       <c r="F1485">
-        <v>0</v>
-      </c>
-      <c r="G1485" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="1486" spans="1:8" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1486">
-        <v>29023</v>
+        <v>29135</v>
       </c>
       <c r="B1486" t="s">
-        <v>55</v>
+        <v>1331</v>
       </c>
       <c r="C1486" t="s">
         <v>1298</v>
       </c>
-      <c r="D1486" t="s">
-        <v>1305</v>
-      </c>
       <c r="E1486">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1486">
-        <v>0</v>
-      </c>
-      <c r="G1486" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="1487" spans="1:8" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1487">
-        <v>29031</v>
+        <v>29137</v>
       </c>
       <c r="B1487" t="s">
-        <v>1308</v>
+        <v>106</v>
       </c>
       <c r="C1487" t="s">
         <v>1298</v>
       </c>
-      <c r="D1487" t="s">
-        <v>1309</v>
-      </c>
       <c r="E1487">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1487">
-        <v>0</v>
-      </c>
-      <c r="G1487" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="1488" spans="1:8" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1488">
-        <v>29033</v>
+        <v>29139</v>
       </c>
       <c r="B1488" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="C1488" t="s">
         <v>1298</v>
@@ -40358,18 +40427,15 @@
         <v>0</v>
       </c>
       <c r="F1488">
-        <v>0</v>
-      </c>
-      <c r="G1488" t="s">
-        <v>130</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1489" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1489">
-        <v>29035</v>
+        <v>29143</v>
       </c>
       <c r="B1489" t="s">
-        <v>964</v>
+        <v>1332</v>
       </c>
       <c r="C1489" t="s">
         <v>1298</v>
@@ -40378,18 +40444,15 @@
         <v>0</v>
       </c>
       <c r="F1489">
-        <v>0</v>
-      </c>
-      <c r="G1489" t="s">
-        <v>130</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1490" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1490">
-        <v>29039</v>
+        <v>29145</v>
       </c>
       <c r="B1490" t="s">
-        <v>615</v>
+        <v>166</v>
       </c>
       <c r="C1490" t="s">
         <v>1298</v>
@@ -40398,41 +40461,32 @@
         <v>0</v>
       </c>
       <c r="F1490">
-        <v>0</v>
-      </c>
-      <c r="G1490" t="s">
-        <v>130</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1491" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1491">
-        <v>29047</v>
+        <v>29147</v>
       </c>
       <c r="B1491" t="s">
-        <v>65</v>
+        <v>1333</v>
       </c>
       <c r="C1491" t="s">
         <v>1298</v>
       </c>
-      <c r="D1491" t="s">
-        <v>1311</v>
-      </c>
       <c r="E1491">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1491">
-        <v>0</v>
-      </c>
-      <c r="G1491" t="s">
-        <v>130</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1492" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1492">
-        <v>29055</v>
+        <v>29149</v>
       </c>
       <c r="B1492" t="s">
-        <v>143</v>
+        <v>1334</v>
       </c>
       <c r="C1492" t="s">
         <v>1298</v>
@@ -40441,18 +40495,15 @@
         <v>0</v>
       </c>
       <c r="F1492">
-        <v>0</v>
-      </c>
-      <c r="G1492" t="s">
-        <v>130</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1493" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1493">
-        <v>29065</v>
+        <v>29151</v>
       </c>
       <c r="B1493" t="s">
-        <v>1317</v>
+        <v>908</v>
       </c>
       <c r="C1493" t="s">
         <v>1298</v>
@@ -40461,18 +40512,15 @@
         <v>0</v>
       </c>
       <c r="F1493">
-        <v>0</v>
-      </c>
-      <c r="G1493" t="s">
-        <v>130</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1494" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1494">
-        <v>29079</v>
+        <v>29153</v>
       </c>
       <c r="B1494" t="s">
-        <v>628</v>
+        <v>1335</v>
       </c>
       <c r="C1494" t="s">
         <v>1298</v>
@@ -40481,18 +40529,15 @@
         <v>0</v>
       </c>
       <c r="F1494">
-        <v>0</v>
-      </c>
-      <c r="G1494" t="s">
-        <v>130</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1495" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1495">
-        <v>29083</v>
+        <v>29157</v>
       </c>
       <c r="B1495" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="C1495" t="s">
         <v>1298</v>
@@ -40501,18 +40546,15 @@
         <v>0</v>
       </c>
       <c r="F1495">
-        <v>0</v>
-      </c>
-      <c r="G1495" t="s">
-        <v>130</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1496" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1496">
-        <v>29091</v>
+        <v>29159</v>
       </c>
       <c r="B1496" t="s">
-        <v>1323</v>
+        <v>1337</v>
       </c>
       <c r="C1496" t="s">
         <v>1298</v>
@@ -40521,41 +40563,38 @@
         <v>0</v>
       </c>
       <c r="F1496">
-        <v>0</v>
-      </c>
-      <c r="G1496" t="s">
-        <v>130</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1497" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1497">
-        <v>29099</v>
+        <v>29163</v>
       </c>
       <c r="B1497" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="C1497" t="s">
         <v>1298</v>
       </c>
       <c r="D1497" t="s">
-        <v>1325</v>
+        <v>1340</v>
       </c>
       <c r="E1497">
         <v>1</v>
       </c>
       <c r="F1497">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1497" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1498" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1498">
-        <v>29101</v>
+        <v>29171</v>
       </c>
       <c r="B1498" t="s">
-        <v>157</v>
+        <v>465</v>
       </c>
       <c r="C1498" t="s">
         <v>1298</v>
@@ -40564,38 +40603,38 @@
         <v>0</v>
       </c>
       <c r="F1498">
-        <v>0</v>
-      </c>
-      <c r="G1498" t="s">
-        <v>130</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1499" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1499">
-        <v>29117</v>
+        <v>29175</v>
       </c>
       <c r="B1499" t="s">
-        <v>763</v>
+        <v>114</v>
       </c>
       <c r="C1499" t="s">
         <v>1298</v>
       </c>
+      <c r="D1499" t="s">
+        <v>1344</v>
+      </c>
       <c r="E1499">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1499">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1499" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1500" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1500">
-        <v>29123</v>
+        <v>29177</v>
       </c>
       <c r="B1500" t="s">
-        <v>99</v>
+        <v>1345</v>
       </c>
       <c r="C1500" t="s">
         <v>1298</v>
@@ -40604,18 +40643,15 @@
         <v>0</v>
       </c>
       <c r="F1500">
-        <v>0</v>
-      </c>
-      <c r="G1500" t="s">
-        <v>130</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1501" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1501">
-        <v>29141</v>
+        <v>29195</v>
       </c>
       <c r="B1501" t="s">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="C1501" t="s">
         <v>1298</v>
@@ -40624,18 +40660,15 @@
         <v>0</v>
       </c>
       <c r="F1501">
-        <v>0</v>
-      </c>
-      <c r="G1501" t="s">
-        <v>130</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1502" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1502">
-        <v>29155</v>
+        <v>29197</v>
       </c>
       <c r="B1502" t="s">
-        <v>1336</v>
+        <v>788</v>
       </c>
       <c r="C1502" t="s">
         <v>1298</v>
@@ -40644,64 +40677,49 @@
         <v>0</v>
       </c>
       <c r="F1502">
-        <v>0</v>
-      </c>
-      <c r="G1502" t="s">
-        <v>130</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1503" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1503">
-        <v>29161</v>
+        <v>29199</v>
       </c>
       <c r="B1503" t="s">
-        <v>1338</v>
+        <v>1347</v>
       </c>
       <c r="C1503" t="s">
         <v>1298</v>
       </c>
-      <c r="D1503" t="s">
-        <v>1339</v>
-      </c>
       <c r="E1503">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1503">
-        <v>0</v>
-      </c>
-      <c r="G1503" t="s">
-        <v>130</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1504" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1504">
-        <v>29165</v>
+        <v>29201</v>
       </c>
       <c r="B1504" t="s">
-        <v>1341</v>
+        <v>175</v>
       </c>
       <c r="C1504" t="s">
         <v>1298</v>
       </c>
-      <c r="D1504" t="s">
-        <v>1342</v>
-      </c>
       <c r="E1504">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1504">
-        <v>0</v>
-      </c>
-      <c r="G1504" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="1505" spans="1:7" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1505">
-        <v>29167</v>
+        <v>29205</v>
       </c>
       <c r="B1505" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="C1505" t="s">
         <v>1298</v>
@@ -40710,18 +40728,15 @@
         <v>0</v>
       </c>
       <c r="F1505">
-        <v>0</v>
-      </c>
-      <c r="G1505" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="1506" spans="1:7" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1506">
-        <v>29169</v>
+        <v>29187</v>
       </c>
       <c r="B1506" t="s">
-        <v>173</v>
+        <v>1351</v>
       </c>
       <c r="C1506" t="s">
         <v>1298</v>
@@ -40730,18 +40745,15 @@
         <v>0</v>
       </c>
       <c r="F1506">
-        <v>0</v>
-      </c>
-      <c r="G1506" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="1507" spans="1:7" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1507">
-        <v>29173</v>
+        <v>29510</v>
       </c>
       <c r="B1507" t="s">
-        <v>1343</v>
+        <v>1352</v>
       </c>
       <c r="C1507" t="s">
         <v>1298</v>
@@ -40750,38 +40762,41 @@
         <v>0</v>
       </c>
       <c r="F1507">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1507" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="1508" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1508" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1508">
-        <v>29179</v>
+        <v>29189</v>
       </c>
       <c r="B1508" t="s">
-        <v>1346</v>
+        <v>1286</v>
       </c>
       <c r="C1508" t="s">
         <v>1298</v>
       </c>
+      <c r="D1508" t="s">
+        <v>1353</v>
+      </c>
       <c r="E1508">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1508">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1508" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="1509" spans="1:7" x14ac:dyDescent="0.5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1509">
-        <v>29181</v>
+        <v>29186</v>
       </c>
       <c r="B1509" t="s">
-        <v>838</v>
+        <v>1354</v>
       </c>
       <c r="C1509" t="s">
         <v>1298</v>
@@ -40790,18 +40805,15 @@
         <v>0</v>
       </c>
       <c r="F1509">
-        <v>0</v>
-      </c>
-      <c r="G1509" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="1510" spans="1:7" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1510">
-        <v>29203</v>
+        <v>29209</v>
       </c>
       <c r="B1510" t="s">
-        <v>1348</v>
+        <v>181</v>
       </c>
       <c r="C1510" t="s">
         <v>1298</v>
@@ -40810,61 +40822,55 @@
         <v>0</v>
       </c>
       <c r="F1510">
-        <v>0</v>
-      </c>
-      <c r="G1510" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="1511" spans="1:7" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1511">
-        <v>29183</v>
+        <v>29211</v>
       </c>
       <c r="B1511" t="s">
-        <v>1349</v>
+        <v>845</v>
       </c>
       <c r="C1511" t="s">
         <v>1298</v>
       </c>
-      <c r="D1511" t="s">
-        <v>1350</v>
-      </c>
       <c r="E1511">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1511">
-        <v>0</v>
-      </c>
-      <c r="G1511" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="1512" spans="1:7" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1512">
-        <v>29185</v>
+        <v>29213</v>
       </c>
       <c r="B1512" t="s">
-        <v>117</v>
+        <v>1356</v>
       </c>
       <c r="C1512" t="s">
         <v>1298</v>
       </c>
+      <c r="D1512" t="s">
+        <v>1357</v>
+      </c>
       <c r="E1512">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1512">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1512" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="1513" spans="1:7" x14ac:dyDescent="0.5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1513">
-        <v>29510</v>
+        <v>29215</v>
       </c>
       <c r="B1513" t="s">
-        <v>1352</v>
+        <v>1358</v>
       </c>
       <c r="C1513" t="s">
         <v>1298</v>
@@ -40875,36 +40881,36 @@
       <c r="F1513">
         <v>1</v>
       </c>
-      <c r="G1513" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="1514" spans="1:7" x14ac:dyDescent="0.5">
+    </row>
+    <row r="1514" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1514">
-        <v>29207</v>
+        <v>29219</v>
       </c>
       <c r="B1514" t="s">
-        <v>1355</v>
+        <v>586</v>
       </c>
       <c r="C1514" t="s">
         <v>1298</v>
       </c>
+      <c r="D1514" t="s">
+        <v>1360</v>
+      </c>
       <c r="E1514">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1514">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1514" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="1515" spans="1:7" x14ac:dyDescent="0.5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1515">
-        <v>29217</v>
+        <v>29221</v>
       </c>
       <c r="B1515" t="s">
-        <v>1359</v>
+        <v>125</v>
       </c>
       <c r="C1515" t="s">
         <v>1298</v>
@@ -40913,18 +40919,15 @@
         <v>0</v>
       </c>
       <c r="F1515">
-        <v>0</v>
-      </c>
-      <c r="G1515" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="1516" spans="1:7" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1516">
-        <v>29223</v>
+        <v>29227</v>
       </c>
       <c r="B1516" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="C1516" t="s">
         <v>1298</v>
@@ -40933,18 +40936,18 @@
         <v>0</v>
       </c>
       <c r="F1516">
-        <v>0</v>
-      </c>
-      <c r="G1516" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="1517" spans="1:7" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+      <c r="H1516" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1517">
-        <v>29225</v>
+        <v>29229</v>
       </c>
       <c r="B1517" t="s">
-        <v>588</v>
+        <v>677</v>
       </c>
       <c r="C1517" t="s">
         <v>1298</v>
@@ -40953,95 +40956,95 @@
         <v>0</v>
       </c>
       <c r="F1517">
-        <v>0</v>
-      </c>
-      <c r="G1517" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="1518" spans="1:7" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1518">
-        <v>28001</v>
+        <v>28009</v>
       </c>
       <c r="B1518" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
       <c r="C1518" t="s">
         <v>1361</v>
       </c>
-      <c r="D1518" t="s">
-        <v>10</v>
-      </c>
       <c r="E1518">
         <v>0</v>
       </c>
+      <c r="F1518">
+        <v>0</v>
+      </c>
       <c r="G1518" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1519" spans="1:7" x14ac:dyDescent="0.5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1519">
-        <v>28003</v>
+        <v>28015</v>
       </c>
       <c r="B1519" t="s">
-        <v>1362</v>
+        <v>136</v>
       </c>
       <c r="C1519" t="s">
         <v>1361</v>
       </c>
-      <c r="D1519" t="s">
-        <v>10</v>
-      </c>
       <c r="E1519">
         <v>0</v>
       </c>
+      <c r="F1519">
+        <v>0</v>
+      </c>
       <c r="G1519" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1520" spans="1:7" x14ac:dyDescent="0.5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1520">
-        <v>28005</v>
+        <v>28017</v>
       </c>
       <c r="B1520" t="s">
-        <v>1363</v>
+        <v>618</v>
       </c>
       <c r="C1520" t="s">
         <v>1361</v>
       </c>
-      <c r="D1520" t="s">
-        <v>10</v>
-      </c>
       <c r="E1520">
         <v>0</v>
       </c>
+      <c r="F1520">
+        <v>0</v>
+      </c>
       <c r="G1520" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1521" spans="1:5" x14ac:dyDescent="0.5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1521">
-        <v>28007</v>
+        <v>28023</v>
       </c>
       <c r="B1521" t="s">
-        <v>1364</v>
+        <v>64</v>
       </c>
       <c r="C1521" t="s">
         <v>1361</v>
       </c>
-      <c r="D1521" t="s">
-        <v>10</v>
-      </c>
       <c r="E1521">
         <v>0</v>
       </c>
-    </row>
-    <row r="1522" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1521">
+        <v>0</v>
+      </c>
+      <c r="G1521" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1522">
-        <v>28009</v>
+        <v>28025</v>
       </c>
       <c r="B1522" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="C1522" t="s">
         <v>1361</v>
@@ -41049,13 +41052,19 @@
       <c r="E1522">
         <v>0</v>
       </c>
-    </row>
-    <row r="1523" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1522">
+        <v>0</v>
+      </c>
+      <c r="G1522" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1523">
-        <v>28011</v>
+        <v>28029</v>
       </c>
       <c r="B1523" t="s">
-        <v>1365</v>
+        <v>1368</v>
       </c>
       <c r="C1523" t="s">
         <v>1361</v>
@@ -41063,13 +41072,19 @@
       <c r="E1523">
         <v>0</v>
       </c>
-    </row>
-    <row r="1524" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1523">
+        <v>0</v>
+      </c>
+      <c r="G1523" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1524">
-        <v>28013</v>
+        <v>28033</v>
       </c>
       <c r="B1524" t="s">
-        <v>57</v>
+        <v>421</v>
       </c>
       <c r="C1524" t="s">
         <v>1361</v>
@@ -41077,13 +41092,19 @@
       <c r="E1524">
         <v>0</v>
       </c>
-    </row>
-    <row r="1525" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1524">
+        <v>0</v>
+      </c>
+      <c r="G1524" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1525">
-        <v>28015</v>
+        <v>28035</v>
       </c>
       <c r="B1525" t="s">
-        <v>136</v>
+        <v>1369</v>
       </c>
       <c r="C1525" t="s">
         <v>1361</v>
@@ -41091,13 +41112,19 @@
       <c r="E1525">
         <v>0</v>
       </c>
-    </row>
-    <row r="1526" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1525">
+        <v>0</v>
+      </c>
+      <c r="G1525" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1526">
-        <v>28017</v>
+        <v>28037</v>
       </c>
       <c r="B1526" t="s">
-        <v>618</v>
+        <v>82</v>
       </c>
       <c r="C1526" t="s">
         <v>1361</v>
@@ -41105,13 +41132,19 @@
       <c r="E1526">
         <v>0</v>
       </c>
-    </row>
-    <row r="1527" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1526">
+        <v>0</v>
+      </c>
+      <c r="G1526" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1527">
-        <v>28019</v>
+        <v>28041</v>
       </c>
       <c r="B1527" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C1527" t="s">
         <v>1361</v>
@@ -41119,13 +41152,19 @@
       <c r="E1527">
         <v>0</v>
       </c>
-    </row>
-    <row r="1528" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1527">
+        <v>0</v>
+      </c>
+      <c r="G1527" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1528">
-        <v>28021</v>
+        <v>28043</v>
       </c>
       <c r="B1528" t="s">
-        <v>1366</v>
+        <v>1371</v>
       </c>
       <c r="C1528" t="s">
         <v>1361</v>
@@ -41133,13 +41172,19 @@
       <c r="E1528">
         <v>0</v>
       </c>
-    </row>
-    <row r="1529" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1528">
+        <v>0</v>
+      </c>
+      <c r="G1528" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1529">
-        <v>28023</v>
+        <v>28045</v>
       </c>
       <c r="B1529" t="s">
-        <v>64</v>
+        <v>537</v>
       </c>
       <c r="C1529" t="s">
         <v>1361</v>
@@ -41147,13 +41192,19 @@
       <c r="E1529">
         <v>0</v>
       </c>
-    </row>
-    <row r="1530" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1529">
+        <v>0</v>
+      </c>
+      <c r="G1529" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1530">
-        <v>28025</v>
+        <v>28053</v>
       </c>
       <c r="B1530" t="s">
-        <v>65</v>
+        <v>1373</v>
       </c>
       <c r="C1530" t="s">
         <v>1361</v>
@@ -41161,13 +41212,19 @@
       <c r="E1530">
         <v>0</v>
       </c>
-    </row>
-    <row r="1531" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1530">
+        <v>0</v>
+      </c>
+      <c r="G1530" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1531">
-        <v>28027</v>
+        <v>28055</v>
       </c>
       <c r="B1531" t="s">
-        <v>1367</v>
+        <v>1374</v>
       </c>
       <c r="C1531" t="s">
         <v>1361</v>
@@ -41175,13 +41232,19 @@
       <c r="E1531">
         <v>0</v>
       </c>
-    </row>
-    <row r="1532" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1531">
+        <v>0</v>
+      </c>
+      <c r="G1531" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1532">
-        <v>28029</v>
+        <v>28057</v>
       </c>
       <c r="B1532" t="s">
-        <v>1368</v>
+        <v>1375</v>
       </c>
       <c r="C1532" t="s">
         <v>1361</v>
@@ -41189,13 +41252,19 @@
       <c r="E1532">
         <v>0</v>
       </c>
-    </row>
-    <row r="1533" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1532">
+        <v>0</v>
+      </c>
+      <c r="G1532" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1533">
-        <v>28031</v>
+        <v>28061</v>
       </c>
       <c r="B1533" t="s">
-        <v>71</v>
+        <v>543</v>
       </c>
       <c r="C1533" t="s">
         <v>1361</v>
@@ -41203,13 +41272,19 @@
       <c r="E1533">
         <v>0</v>
       </c>
-    </row>
-    <row r="1534" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1533">
+        <v>0</v>
+      </c>
+      <c r="G1533" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1534">
-        <v>28033</v>
+        <v>28063</v>
       </c>
       <c r="B1534" t="s">
-        <v>421</v>
+        <v>89</v>
       </c>
       <c r="C1534" t="s">
         <v>1361</v>
@@ -41217,13 +41292,19 @@
       <c r="E1534">
         <v>0</v>
       </c>
-    </row>
-    <row r="1535" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1534">
+        <v>0</v>
+      </c>
+      <c r="G1534" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1535">
-        <v>28035</v>
+        <v>28065</v>
       </c>
       <c r="B1535" t="s">
-        <v>1369</v>
+        <v>1376</v>
       </c>
       <c r="C1535" t="s">
         <v>1361</v>
@@ -41231,13 +41312,19 @@
       <c r="E1535">
         <v>0</v>
       </c>
-    </row>
-    <row r="1536" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1535">
+        <v>0</v>
+      </c>
+      <c r="G1535" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1536">
-        <v>28037</v>
+        <v>28073</v>
       </c>
       <c r="B1536" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C1536" t="s">
         <v>1361</v>
@@ -41245,13 +41332,19 @@
       <c r="E1536">
         <v>0</v>
       </c>
-    </row>
-    <row r="1537" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1536">
+        <v>0</v>
+      </c>
+      <c r="G1536" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1537">
-        <v>28039</v>
+        <v>28083</v>
       </c>
       <c r="B1537" t="s">
-        <v>1370</v>
+        <v>1379</v>
       </c>
       <c r="C1537" t="s">
         <v>1361</v>
@@ -41259,13 +41352,19 @@
       <c r="E1537">
         <v>0</v>
       </c>
-    </row>
-    <row r="1538" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1537">
+        <v>0</v>
+      </c>
+      <c r="G1537" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1538">
-        <v>28041</v>
+        <v>28089</v>
       </c>
       <c r="B1538" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C1538" t="s">
         <v>1361</v>
@@ -41273,13 +41372,19 @@
       <c r="E1538">
         <v>0</v>
       </c>
-    </row>
-    <row r="1539" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1538">
+        <v>0</v>
+      </c>
+      <c r="G1538" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1539">
-        <v>28043</v>
+        <v>28093</v>
       </c>
       <c r="B1539" t="s">
-        <v>1371</v>
+        <v>102</v>
       </c>
       <c r="C1539" t="s">
         <v>1361</v>
@@ -41287,13 +41392,19 @@
       <c r="E1539">
         <v>0</v>
       </c>
-    </row>
-    <row r="1540" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1539">
+        <v>0</v>
+      </c>
+      <c r="G1539" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1540">
-        <v>28045</v>
+        <v>28097</v>
       </c>
       <c r="B1540" t="s">
-        <v>537</v>
+        <v>107</v>
       </c>
       <c r="C1540" t="s">
         <v>1361</v>
@@ -41301,13 +41412,19 @@
       <c r="E1540">
         <v>0</v>
       </c>
-    </row>
-    <row r="1541" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1540">
+        <v>0</v>
+      </c>
+      <c r="G1540" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1541">
-        <v>28047</v>
+        <v>28105</v>
       </c>
       <c r="B1541" t="s">
-        <v>632</v>
+        <v>1382</v>
       </c>
       <c r="C1541" t="s">
         <v>1361</v>
@@ -41315,13 +41432,19 @@
       <c r="E1541">
         <v>0</v>
       </c>
-    </row>
-    <row r="1542" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1541">
+        <v>0</v>
+      </c>
+      <c r="G1541" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1542">
-        <v>28049</v>
+        <v>28107</v>
       </c>
       <c r="B1542" t="s">
-        <v>1372</v>
+        <v>1383</v>
       </c>
       <c r="C1542" t="s">
         <v>1361</v>
@@ -41329,13 +41452,19 @@
       <c r="E1542">
         <v>0</v>
       </c>
-    </row>
-    <row r="1543" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1542">
+        <v>0</v>
+      </c>
+      <c r="G1542" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1543">
-        <v>28051</v>
+        <v>28111</v>
       </c>
       <c r="B1543" t="s">
-        <v>441</v>
+        <v>111</v>
       </c>
       <c r="C1543" t="s">
         <v>1361</v>
@@ -41343,13 +41472,19 @@
       <c r="E1543">
         <v>0</v>
       </c>
-    </row>
-    <row r="1544" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1543">
+        <v>0</v>
+      </c>
+      <c r="G1543" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1544">
-        <v>28053</v>
+        <v>28117</v>
       </c>
       <c r="B1544" t="s">
-        <v>1373</v>
+        <v>1386</v>
       </c>
       <c r="C1544" t="s">
         <v>1361</v>
@@ -41357,13 +41492,19 @@
       <c r="E1544">
         <v>0</v>
       </c>
-    </row>
-    <row r="1545" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1544">
+        <v>0</v>
+      </c>
+      <c r="G1544" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1545">
-        <v>28055</v>
+        <v>28119</v>
       </c>
       <c r="B1545" t="s">
-        <v>1374</v>
+        <v>562</v>
       </c>
       <c r="C1545" t="s">
         <v>1361</v>
@@ -41371,13 +41512,19 @@
       <c r="E1545">
         <v>0</v>
       </c>
-    </row>
-    <row r="1546" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1545">
+        <v>0</v>
+      </c>
+      <c r="G1545" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1546">
-        <v>28057</v>
+        <v>28125</v>
       </c>
       <c r="B1546" t="s">
-        <v>1375</v>
+        <v>1388</v>
       </c>
       <c r="C1546" t="s">
         <v>1361</v>
@@ -41385,13 +41532,19 @@
       <c r="E1546">
         <v>0</v>
       </c>
-    </row>
-    <row r="1547" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1546">
+        <v>0</v>
+      </c>
+      <c r="G1546" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1547">
-        <v>28059</v>
+        <v>28129</v>
       </c>
       <c r="B1547" t="s">
-        <v>88</v>
+        <v>930</v>
       </c>
       <c r="C1547" t="s">
         <v>1361</v>
@@ -41399,13 +41552,19 @@
       <c r="E1547">
         <v>0</v>
       </c>
-    </row>
-    <row r="1548" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1547">
+        <v>0</v>
+      </c>
+      <c r="G1547" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1548">
-        <v>28061</v>
+        <v>28133</v>
       </c>
       <c r="B1548" t="s">
-        <v>543</v>
+        <v>1389</v>
       </c>
       <c r="C1548" t="s">
         <v>1361</v>
@@ -41413,13 +41572,19 @@
       <c r="E1548">
         <v>0</v>
       </c>
-    </row>
-    <row r="1549" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1548">
+        <v>0</v>
+      </c>
+      <c r="G1548" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1549">
-        <v>28063</v>
+        <v>28135</v>
       </c>
       <c r="B1549" t="s">
-        <v>89</v>
+        <v>1390</v>
       </c>
       <c r="C1549" t="s">
         <v>1361</v>
@@ -41427,13 +41592,19 @@
       <c r="E1549">
         <v>0</v>
       </c>
-    </row>
-    <row r="1550" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1549">
+        <v>0</v>
+      </c>
+      <c r="G1549" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1550">
-        <v>28065</v>
+        <v>28137</v>
       </c>
       <c r="B1550" t="s">
-        <v>1376</v>
+        <v>1391</v>
       </c>
       <c r="C1550" t="s">
         <v>1361</v>
@@ -41441,13 +41612,19 @@
       <c r="E1550">
         <v>0</v>
       </c>
-    </row>
-    <row r="1551" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1550">
+        <v>0</v>
+      </c>
+      <c r="G1550" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1551">
-        <v>28067</v>
+        <v>28143</v>
       </c>
       <c r="B1551" t="s">
-        <v>546</v>
+        <v>1394</v>
       </c>
       <c r="C1551" t="s">
         <v>1361</v>
@@ -41455,13 +41632,19 @@
       <c r="E1551">
         <v>0</v>
       </c>
-    </row>
-    <row r="1552" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1551">
+        <v>0</v>
+      </c>
+      <c r="G1551" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1552">
-        <v>28069</v>
+        <v>28147</v>
       </c>
       <c r="B1552" t="s">
-        <v>1377</v>
+        <v>1395</v>
       </c>
       <c r="C1552" t="s">
         <v>1361</v>
@@ -41469,13 +41652,19 @@
       <c r="E1552">
         <v>0</v>
       </c>
-    </row>
-    <row r="1553" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1552">
+        <v>0</v>
+      </c>
+      <c r="G1552" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1553">
-        <v>28071</v>
+        <v>28153</v>
       </c>
       <c r="B1553" t="s">
-        <v>158</v>
+        <v>587</v>
       </c>
       <c r="C1553" t="s">
         <v>1361</v>
@@ -41483,13 +41672,19 @@
       <c r="E1553">
         <v>0</v>
       </c>
-    </row>
-    <row r="1554" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1553">
+        <v>0</v>
+      </c>
+      <c r="G1553" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1554">
-        <v>28073</v>
+        <v>28155</v>
       </c>
       <c r="B1554" t="s">
-        <v>91</v>
+        <v>588</v>
       </c>
       <c r="C1554" t="s">
         <v>1361</v>
@@ -41497,13 +41692,19 @@
       <c r="E1554">
         <v>0</v>
       </c>
-    </row>
-    <row r="1555" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1554">
+        <v>0</v>
+      </c>
+      <c r="G1554" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1555">
-        <v>28075</v>
+        <v>28157</v>
       </c>
       <c r="B1555" t="s">
-        <v>92</v>
+        <v>592</v>
       </c>
       <c r="C1555" t="s">
         <v>1361</v>
@@ -41511,13 +41712,19 @@
       <c r="E1555">
         <v>0</v>
       </c>
-    </row>
-    <row r="1556" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1555">
+        <v>0</v>
+      </c>
+      <c r="G1555" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1556">
-        <v>28077</v>
+        <v>28159</v>
       </c>
       <c r="B1556" t="s">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="C1556" t="s">
         <v>1361</v>
@@ -41525,13 +41732,19 @@
       <c r="E1556">
         <v>0</v>
       </c>
-    </row>
-    <row r="1557" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1556">
+        <v>0</v>
+      </c>
+      <c r="G1556" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1557">
-        <v>28079</v>
+        <v>28161</v>
       </c>
       <c r="B1557" t="s">
-        <v>1378</v>
+        <v>1396</v>
       </c>
       <c r="C1557" t="s">
         <v>1361</v>
@@ -41539,69 +41752,108 @@
       <c r="E1557">
         <v>0</v>
       </c>
-    </row>
-    <row r="1558" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1557">
+        <v>0</v>
+      </c>
+      <c r="G1557" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1558">
-        <v>28081</v>
+        <v>28001</v>
       </c>
       <c r="B1558" t="s">
-        <v>94</v>
+        <v>310</v>
       </c>
       <c r="C1558" t="s">
         <v>1361</v>
       </c>
+      <c r="D1558" t="s">
+        <v>10</v>
+      </c>
       <c r="E1558">
         <v>0</v>
       </c>
-    </row>
-    <row r="1559" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1558">
+        <v>1</v>
+      </c>
+      <c r="G1558" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1559">
-        <v>28083</v>
+        <v>28003</v>
       </c>
       <c r="B1559" t="s">
-        <v>1379</v>
+        <v>1362</v>
       </c>
       <c r="C1559" t="s">
         <v>1361</v>
       </c>
+      <c r="D1559" t="s">
+        <v>10</v>
+      </c>
       <c r="E1559">
         <v>0</v>
       </c>
-    </row>
-    <row r="1560" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1559">
+        <v>1</v>
+      </c>
+      <c r="G1559" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1560">
-        <v>28085</v>
+        <v>28005</v>
       </c>
       <c r="B1560" t="s">
-        <v>159</v>
+        <v>1363</v>
       </c>
       <c r="C1560" t="s">
         <v>1361</v>
       </c>
+      <c r="D1560" t="s">
+        <v>10</v>
+      </c>
       <c r="E1560">
         <v>0</v>
       </c>
-    </row>
-    <row r="1561" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1560">
+        <v>1</v>
+      </c>
+      <c r="G1560" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1561">
-        <v>28087</v>
+        <v>28007</v>
       </c>
       <c r="B1561" t="s">
-        <v>97</v>
+        <v>1364</v>
       </c>
       <c r="C1561" t="s">
         <v>1361</v>
       </c>
+      <c r="D1561" t="s">
+        <v>10</v>
+      </c>
       <c r="E1561">
         <v>0</v>
       </c>
-    </row>
-    <row r="1562" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1561">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1562">
-        <v>28089</v>
+        <v>28011</v>
       </c>
       <c r="B1562" t="s">
-        <v>99</v>
+        <v>1365</v>
       </c>
       <c r="C1562" t="s">
         <v>1361</v>
@@ -41609,13 +41861,16 @@
       <c r="E1562">
         <v>0</v>
       </c>
-    </row>
-    <row r="1563" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1562">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1563">
-        <v>28091</v>
+        <v>28013</v>
       </c>
       <c r="B1563" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="C1563" t="s">
         <v>1361</v>
@@ -41623,13 +41878,16 @@
       <c r="E1563">
         <v>0</v>
       </c>
-    </row>
-    <row r="1564" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1564">
-        <v>28093</v>
+        <v>28019</v>
       </c>
       <c r="B1564" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="C1564" t="s">
         <v>1361</v>
@@ -41637,13 +41895,16 @@
       <c r="E1564">
         <v>0</v>
       </c>
-    </row>
-    <row r="1565" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1564">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1565">
-        <v>28095</v>
+        <v>28021</v>
       </c>
       <c r="B1565" t="s">
-        <v>106</v>
+        <v>1366</v>
       </c>
       <c r="C1565" t="s">
         <v>1361</v>
@@ -41651,13 +41912,16 @@
       <c r="E1565">
         <v>0</v>
       </c>
-    </row>
-    <row r="1566" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1565">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1566">
-        <v>28097</v>
+        <v>28027</v>
       </c>
       <c r="B1566" t="s">
-        <v>107</v>
+        <v>1367</v>
       </c>
       <c r="C1566" t="s">
         <v>1361</v>
@@ -41665,13 +41929,16 @@
       <c r="E1566">
         <v>0</v>
       </c>
-    </row>
-    <row r="1567" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1566">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1567">
-        <v>28099</v>
+        <v>28031</v>
       </c>
       <c r="B1567" t="s">
-        <v>1380</v>
+        <v>71</v>
       </c>
       <c r="C1567" t="s">
         <v>1361</v>
@@ -41679,13 +41946,16 @@
       <c r="E1567">
         <v>0</v>
       </c>
-    </row>
-    <row r="1568" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1567">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1568">
-        <v>28101</v>
+        <v>28039</v>
       </c>
       <c r="B1568" t="s">
-        <v>166</v>
+        <v>1370</v>
       </c>
       <c r="C1568" t="s">
         <v>1361</v>
@@ -41693,13 +41963,16 @@
       <c r="E1568">
         <v>0</v>
       </c>
-    </row>
-    <row r="1569" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1568">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1569">
-        <v>28103</v>
+        <v>28047</v>
       </c>
       <c r="B1569" t="s">
-        <v>1381</v>
+        <v>632</v>
       </c>
       <c r="C1569" t="s">
         <v>1361</v>
@@ -41707,13 +41980,16 @@
       <c r="E1569">
         <v>0</v>
       </c>
-    </row>
-    <row r="1570" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1569">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1570">
-        <v>28105</v>
+        <v>28049</v>
       </c>
       <c r="B1570" t="s">
-        <v>1382</v>
+        <v>1372</v>
       </c>
       <c r="C1570" t="s">
         <v>1361</v>
@@ -41721,13 +41997,16 @@
       <c r="E1570">
         <v>0</v>
       </c>
-    </row>
-    <row r="1571" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1571">
-        <v>28107</v>
+        <v>28051</v>
       </c>
       <c r="B1571" t="s">
-        <v>1383</v>
+        <v>441</v>
       </c>
       <c r="C1571" t="s">
         <v>1361</v>
@@ -41735,13 +42014,16 @@
       <c r="E1571">
         <v>0</v>
       </c>
-    </row>
-    <row r="1572" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1571">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1572">
-        <v>28109</v>
+        <v>28059</v>
       </c>
       <c r="B1572" t="s">
-        <v>1384</v>
+        <v>88</v>
       </c>
       <c r="C1572" t="s">
         <v>1361</v>
@@ -41749,13 +42031,16 @@
       <c r="E1572">
         <v>0</v>
       </c>
-    </row>
-    <row r="1573" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1572">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1573">
-        <v>28111</v>
+        <v>28067</v>
       </c>
       <c r="B1573" t="s">
-        <v>111</v>
+        <v>546</v>
       </c>
       <c r="C1573" t="s">
         <v>1361</v>
@@ -41763,13 +42048,16 @@
       <c r="E1573">
         <v>0</v>
       </c>
-    </row>
-    <row r="1574" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1573">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1574">
-        <v>28113</v>
+        <v>28069</v>
       </c>
       <c r="B1574" t="s">
-        <v>113</v>
+        <v>1377</v>
       </c>
       <c r="C1574" t="s">
         <v>1361</v>
@@ -41777,13 +42065,16 @@
       <c r="E1574">
         <v>0</v>
       </c>
-    </row>
-    <row r="1575" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1574">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1575">
-        <v>28115</v>
+        <v>28071</v>
       </c>
       <c r="B1575" t="s">
-        <v>1385</v>
+        <v>158</v>
       </c>
       <c r="C1575" t="s">
         <v>1361</v>
@@ -41791,13 +42082,16 @@
       <c r="E1575">
         <v>0</v>
       </c>
-    </row>
-    <row r="1576" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1575">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1576">
-        <v>28117</v>
+        <v>28075</v>
       </c>
       <c r="B1576" t="s">
-        <v>1386</v>
+        <v>92</v>
       </c>
       <c r="C1576" t="s">
         <v>1361</v>
@@ -41805,13 +42099,16 @@
       <c r="E1576">
         <v>0</v>
       </c>
-    </row>
-    <row r="1577" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1576">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1577">
-        <v>28119</v>
+        <v>28077</v>
       </c>
       <c r="B1577" t="s">
-        <v>562</v>
+        <v>93</v>
       </c>
       <c r="C1577" t="s">
         <v>1361</v>
@@ -41819,13 +42116,16 @@
       <c r="E1577">
         <v>0</v>
       </c>
-    </row>
-    <row r="1578" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1578">
-        <v>28121</v>
+        <v>28079</v>
       </c>
       <c r="B1578" t="s">
-        <v>1387</v>
+        <v>1378</v>
       </c>
       <c r="C1578" t="s">
         <v>1361</v>
@@ -41833,13 +42133,16 @@
       <c r="E1578">
         <v>0</v>
       </c>
-    </row>
-    <row r="1579" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1578">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1579">
-        <v>28123</v>
+        <v>28081</v>
       </c>
       <c r="B1579" t="s">
-        <v>175</v>
+        <v>94</v>
       </c>
       <c r="C1579" t="s">
         <v>1361</v>
@@ -41847,13 +42150,16 @@
       <c r="E1579">
         <v>0</v>
       </c>
-    </row>
-    <row r="1580" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1579">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1580">
-        <v>28125</v>
+        <v>28085</v>
       </c>
       <c r="B1580" t="s">
-        <v>1388</v>
+        <v>159</v>
       </c>
       <c r="C1580" t="s">
         <v>1361</v>
@@ -41861,13 +42167,16 @@
       <c r="E1580">
         <v>0</v>
       </c>
-    </row>
-    <row r="1581" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1580">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1581">
-        <v>28127</v>
+        <v>28087</v>
       </c>
       <c r="B1581" t="s">
-        <v>1018</v>
+        <v>97</v>
       </c>
       <c r="C1581" t="s">
         <v>1361</v>
@@ -41875,13 +42184,16 @@
       <c r="E1581">
         <v>0</v>
       </c>
-    </row>
-    <row r="1582" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1581">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1582">
-        <v>28129</v>
+        <v>28091</v>
       </c>
       <c r="B1582" t="s">
-        <v>930</v>
+        <v>101</v>
       </c>
       <c r="C1582" t="s">
         <v>1361</v>
@@ -41889,13 +42201,16 @@
       <c r="E1582">
         <v>0</v>
       </c>
-    </row>
-    <row r="1583" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1582">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1583">
-        <v>28131</v>
+        <v>28095</v>
       </c>
       <c r="B1583" t="s">
-        <v>181</v>
+        <v>106</v>
       </c>
       <c r="C1583" t="s">
         <v>1361</v>
@@ -41903,13 +42218,16 @@
       <c r="E1583">
         <v>0</v>
       </c>
-    </row>
-    <row r="1584" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1583">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1584">
-        <v>28133</v>
+        <v>28099</v>
       </c>
       <c r="B1584" t="s">
-        <v>1389</v>
+        <v>1380</v>
       </c>
       <c r="C1584" t="s">
         <v>1361</v>
@@ -41917,13 +42235,16 @@
       <c r="E1584">
         <v>0</v>
       </c>
-    </row>
-    <row r="1585" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1584">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1585">
-        <v>28135</v>
+        <v>28101</v>
       </c>
       <c r="B1585" t="s">
-        <v>1390</v>
+        <v>166</v>
       </c>
       <c r="C1585" t="s">
         <v>1361</v>
@@ -41931,13 +42252,16 @@
       <c r="E1585">
         <v>0</v>
       </c>
-    </row>
-    <row r="1586" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1585">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1586">
-        <v>28137</v>
+        <v>28103</v>
       </c>
       <c r="B1586" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
       <c r="C1586" t="s">
         <v>1361</v>
@@ -41945,13 +42269,16 @@
       <c r="E1586">
         <v>0</v>
       </c>
-    </row>
-    <row r="1587" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1586">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1587">
-        <v>28139</v>
+        <v>28109</v>
       </c>
       <c r="B1587" t="s">
-        <v>1392</v>
+        <v>1384</v>
       </c>
       <c r="C1587" t="s">
         <v>1361</v>
@@ -41959,13 +42286,16 @@
       <c r="E1587">
         <v>0</v>
       </c>
-    </row>
-    <row r="1588" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1587">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1588">
-        <v>28141</v>
+        <v>28113</v>
       </c>
       <c r="B1588" t="s">
-        <v>1393</v>
+        <v>113</v>
       </c>
       <c r="C1588" t="s">
         <v>1361</v>
@@ -41973,13 +42303,16 @@
       <c r="E1588">
         <v>0</v>
       </c>
-    </row>
-    <row r="1589" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1588">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1589">
-        <v>28143</v>
+        <v>28115</v>
       </c>
       <c r="B1589" t="s">
-        <v>1394</v>
+        <v>1385</v>
       </c>
       <c r="C1589" t="s">
         <v>1361</v>
@@ -41987,13 +42320,16 @@
       <c r="E1589">
         <v>0</v>
       </c>
-    </row>
-    <row r="1590" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1589">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1590">
-        <v>28145</v>
+        <v>28121</v>
       </c>
       <c r="B1590" t="s">
-        <v>182</v>
+        <v>1387</v>
       </c>
       <c r="C1590" t="s">
         <v>1361</v>
@@ -42001,13 +42337,16 @@
       <c r="E1590">
         <v>0</v>
       </c>
-    </row>
-    <row r="1591" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1590">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1591">
-        <v>28147</v>
+        <v>28123</v>
       </c>
       <c r="B1591" t="s">
-        <v>1395</v>
+        <v>175</v>
       </c>
       <c r="C1591" t="s">
         <v>1361</v>
@@ -42015,13 +42354,16 @@
       <c r="E1591">
         <v>0</v>
       </c>
-    </row>
-    <row r="1592" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1591">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1592">
-        <v>28149</v>
+        <v>28127</v>
       </c>
       <c r="B1592" t="s">
-        <v>586</v>
+        <v>1018</v>
       </c>
       <c r="C1592" t="s">
         <v>1361</v>
@@ -42029,13 +42371,16 @@
       <c r="E1592">
         <v>0</v>
       </c>
-    </row>
-    <row r="1593" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1592">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1593">
-        <v>28151</v>
+        <v>28131</v>
       </c>
       <c r="B1593" t="s">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="C1593" t="s">
         <v>1361</v>
@@ -42043,13 +42388,16 @@
       <c r="E1593">
         <v>0</v>
       </c>
-    </row>
-    <row r="1594" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1593">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1594">
-        <v>28153</v>
+        <v>28139</v>
       </c>
       <c r="B1594" t="s">
-        <v>587</v>
+        <v>1392</v>
       </c>
       <c r="C1594" t="s">
         <v>1361</v>
@@ -42057,13 +42405,16 @@
       <c r="E1594">
         <v>0</v>
       </c>
-    </row>
-    <row r="1595" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1594">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1595">
-        <v>28155</v>
+        <v>28141</v>
       </c>
       <c r="B1595" t="s">
-        <v>588</v>
+        <v>1393</v>
       </c>
       <c r="C1595" t="s">
         <v>1361</v>
@@ -42071,13 +42422,16 @@
       <c r="E1595">
         <v>0</v>
       </c>
-    </row>
-    <row r="1596" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1595">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1596">
-        <v>28157</v>
+        <v>28145</v>
       </c>
       <c r="B1596" t="s">
-        <v>592</v>
+        <v>182</v>
       </c>
       <c r="C1596" t="s">
         <v>1361</v>
@@ -42085,13 +42439,16 @@
       <c r="E1596">
         <v>0</v>
       </c>
-    </row>
-    <row r="1597" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1596">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1597">
-        <v>28159</v>
+        <v>28149</v>
       </c>
       <c r="B1597" t="s">
-        <v>127</v>
+        <v>586</v>
       </c>
       <c r="C1597" t="s">
         <v>1361</v>
@@ -42099,13 +42456,16 @@
       <c r="E1597">
         <v>0</v>
       </c>
-    </row>
-    <row r="1598" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1597">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1598">
-        <v>28161</v>
+        <v>28151</v>
       </c>
       <c r="B1598" t="s">
-        <v>1396</v>
+        <v>125</v>
       </c>
       <c r="C1598" t="s">
         <v>1361</v>
@@ -42113,8 +42473,11 @@
       <c r="E1598">
         <v>0</v>
       </c>
-    </row>
-    <row r="1599" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1598">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1599">
         <v>28163</v>
       </c>
@@ -42127,13 +42490,16 @@
       <c r="E1599">
         <v>0</v>
       </c>
-    </row>
-    <row r="1600" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1599">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1600">
-        <v>30001</v>
+        <v>30007</v>
       </c>
       <c r="B1600" t="s">
-        <v>1398</v>
+        <v>1401</v>
       </c>
       <c r="C1600" t="s">
         <v>1399</v>
@@ -42141,13 +42507,19 @@
       <c r="E1600">
         <v>0</v>
       </c>
+      <c r="F1600">
+        <v>0</v>
+      </c>
+      <c r="G1600" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="1601" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1601">
-        <v>30003</v>
+        <v>30011</v>
       </c>
       <c r="B1601" t="s">
-        <v>1400</v>
+        <v>964</v>
       </c>
       <c r="C1601" t="s">
         <v>1399</v>
@@ -42155,13 +42527,19 @@
       <c r="E1601">
         <v>0</v>
       </c>
+      <c r="F1601">
+        <v>0</v>
+      </c>
+      <c r="G1601" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="1602" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1602">
-        <v>30005</v>
+        <v>30017</v>
       </c>
       <c r="B1602" t="s">
-        <v>688</v>
+        <v>332</v>
       </c>
       <c r="C1602" t="s">
         <v>1399</v>
@@ -42169,13 +42547,19 @@
       <c r="E1602">
         <v>0</v>
       </c>
+      <c r="F1602">
+        <v>0</v>
+      </c>
+      <c r="G1602" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="1603" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1603">
-        <v>30007</v>
+        <v>30027</v>
       </c>
       <c r="B1603" t="s">
-        <v>1401</v>
+        <v>1409</v>
       </c>
       <c r="C1603" t="s">
         <v>1399</v>
@@ -42183,13 +42567,19 @@
       <c r="E1603">
         <v>0</v>
       </c>
+      <c r="F1603">
+        <v>0</v>
+      </c>
+      <c r="G1603" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="1604" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1604">
-        <v>30009</v>
+        <v>30037</v>
       </c>
       <c r="B1604" t="s">
-        <v>1402</v>
+        <v>1413</v>
       </c>
       <c r="C1604" t="s">
         <v>1399</v>
@@ -42197,13 +42587,19 @@
       <c r="E1604">
         <v>0</v>
       </c>
+      <c r="F1604">
+        <v>0</v>
+      </c>
+      <c r="G1604" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="1605" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1605">
-        <v>30011</v>
+        <v>30039</v>
       </c>
       <c r="B1605" t="s">
-        <v>964</v>
+        <v>1414</v>
       </c>
       <c r="C1605" t="s">
         <v>1399</v>
@@ -42211,33 +42607,39 @@
       <c r="E1605">
         <v>0</v>
       </c>
+      <c r="F1605">
+        <v>0</v>
+      </c>
+      <c r="G1605" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="1606" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1606">
-        <v>30013</v>
+        <v>30045</v>
       </c>
       <c r="B1606" t="s">
-        <v>1403</v>
+        <v>1417</v>
       </c>
       <c r="C1606" t="s">
         <v>1399</v>
       </c>
-      <c r="D1606" t="s">
-        <v>1404</v>
-      </c>
       <c r="E1606">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F1606">
+        <v>0</v>
       </c>
       <c r="G1606" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
     </row>
     <row r="1607" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1607">
-        <v>30015</v>
+        <v>30049</v>
       </c>
       <c r="B1607" t="s">
-        <v>1405</v>
+        <v>1418</v>
       </c>
       <c r="C1607" t="s">
         <v>1399</v>
@@ -42245,13 +42647,19 @@
       <c r="E1607">
         <v>0</v>
       </c>
+      <c r="F1607">
+        <v>0</v>
+      </c>
+      <c r="G1607" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="1608" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1608">
-        <v>30017</v>
+        <v>30055</v>
       </c>
       <c r="B1608" t="s">
-        <v>332</v>
+        <v>1419</v>
       </c>
       <c r="C1608" t="s">
         <v>1399</v>
@@ -42259,13 +42667,19 @@
       <c r="E1608">
         <v>0</v>
       </c>
+      <c r="F1608">
+        <v>0</v>
+      </c>
+      <c r="G1608" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="1609" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1609">
-        <v>30019</v>
+        <v>30065</v>
       </c>
       <c r="B1609" t="s">
-        <v>1406</v>
+        <v>1422</v>
       </c>
       <c r="C1609" t="s">
         <v>1399</v>
@@ -42273,13 +42687,19 @@
       <c r="E1609">
         <v>0</v>
       </c>
+      <c r="F1609">
+        <v>0</v>
+      </c>
+      <c r="G1609" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="1610" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1610">
-        <v>30021</v>
+        <v>30069</v>
       </c>
       <c r="B1610" t="s">
-        <v>514</v>
+        <v>1423</v>
       </c>
       <c r="C1610" t="s">
         <v>1399</v>
@@ -42287,13 +42707,19 @@
       <c r="E1610">
         <v>0</v>
       </c>
+      <c r="F1610">
+        <v>0</v>
+      </c>
+      <c r="G1610" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="1611" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1611">
-        <v>30023</v>
+        <v>30075</v>
       </c>
       <c r="B1611" t="s">
-        <v>1407</v>
+        <v>1425</v>
       </c>
       <c r="C1611" t="s">
         <v>1399</v>
@@ -42301,13 +42727,19 @@
       <c r="E1611">
         <v>0</v>
       </c>
+      <c r="F1611">
+        <v>0</v>
+      </c>
+      <c r="G1611" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="1612" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1612">
-        <v>30025</v>
+        <v>30077</v>
       </c>
       <c r="B1612" t="s">
-        <v>1408</v>
+        <v>1014</v>
       </c>
       <c r="C1612" t="s">
         <v>1399</v>
@@ -42315,13 +42747,19 @@
       <c r="E1612">
         <v>0</v>
       </c>
+      <c r="F1612">
+        <v>0</v>
+      </c>
+      <c r="G1612" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="1613" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1613">
-        <v>30027</v>
+        <v>30079</v>
       </c>
       <c r="B1613" t="s">
-        <v>1409</v>
+        <v>172</v>
       </c>
       <c r="C1613" t="s">
         <v>1399</v>
@@ -42329,13 +42767,19 @@
       <c r="E1613">
         <v>0</v>
       </c>
+      <c r="F1613">
+        <v>0</v>
+      </c>
+      <c r="G1613" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="1614" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1614">
-        <v>30029</v>
+        <v>30087</v>
       </c>
       <c r="B1614" t="s">
-        <v>1410</v>
+        <v>1428</v>
       </c>
       <c r="C1614" t="s">
         <v>1399</v>
@@ -42343,33 +42787,39 @@
       <c r="E1614">
         <v>0</v>
       </c>
+      <c r="F1614">
+        <v>0</v>
+      </c>
+      <c r="G1614" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="1615" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1615">
-        <v>30031</v>
+        <v>30089</v>
       </c>
       <c r="B1615" t="s">
-        <v>742</v>
+        <v>1429</v>
       </c>
       <c r="C1615" t="s">
         <v>1399</v>
       </c>
-      <c r="D1615" t="s">
-        <v>1411</v>
-      </c>
       <c r="E1615">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F1615">
+        <v>0</v>
       </c>
       <c r="G1615" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
     </row>
     <row r="1616" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1616">
-        <v>30033</v>
+        <v>30095</v>
       </c>
       <c r="B1616" t="s">
-        <v>344</v>
+        <v>1431</v>
       </c>
       <c r="C1616" t="s">
         <v>1399</v>
@@ -42377,13 +42827,19 @@
       <c r="E1616">
         <v>0</v>
       </c>
+      <c r="F1616">
+        <v>0</v>
+      </c>
+      <c r="G1616" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="1617" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1617">
-        <v>30035</v>
+        <v>30103</v>
       </c>
       <c r="B1617" t="s">
-        <v>1412</v>
+        <v>1434</v>
       </c>
       <c r="C1617" t="s">
         <v>1399</v>
@@ -42391,13 +42847,19 @@
       <c r="E1617">
         <v>0</v>
       </c>
+      <c r="F1617">
+        <v>0</v>
+      </c>
+      <c r="G1617" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="1618" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1618">
-        <v>30037</v>
+        <v>30107</v>
       </c>
       <c r="B1618" t="s">
-        <v>1413</v>
+        <v>1435</v>
       </c>
       <c r="C1618" t="s">
         <v>1399</v>
@@ -42405,13 +42867,19 @@
       <c r="E1618">
         <v>0</v>
       </c>
+      <c r="F1618">
+        <v>0</v>
+      </c>
+      <c r="G1618" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="1619" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1619">
-        <v>30039</v>
+        <v>30111</v>
       </c>
       <c r="B1619" t="s">
-        <v>1414</v>
+        <v>1437</v>
       </c>
       <c r="C1619" t="s">
         <v>1399</v>
@@ -42419,13 +42887,19 @@
       <c r="E1619">
         <v>0</v>
       </c>
+      <c r="F1619">
+        <v>0</v>
+      </c>
+      <c r="G1619" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="1620" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1620">
-        <v>30041</v>
+        <v>30001</v>
       </c>
       <c r="B1620" t="s">
-        <v>1415</v>
+        <v>1398</v>
       </c>
       <c r="C1620" t="s">
         <v>1399</v>
@@ -42433,33 +42907,33 @@
       <c r="E1620">
         <v>0</v>
       </c>
+      <c r="F1620">
+        <v>1</v>
+      </c>
     </row>
     <row r="1621" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1621">
-        <v>30043</v>
+        <v>30003</v>
       </c>
       <c r="B1621" t="s">
-        <v>89</v>
+        <v>1400</v>
       </c>
       <c r="C1621" t="s">
         <v>1399</v>
       </c>
-      <c r="D1621" t="s">
-        <v>1416</v>
-      </c>
       <c r="E1621">
-        <v>1</v>
-      </c>
-      <c r="G1621" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="F1621">
+        <v>1</v>
       </c>
     </row>
     <row r="1622" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1622">
-        <v>30045</v>
+        <v>30005</v>
       </c>
       <c r="B1622" t="s">
-        <v>1417</v>
+        <v>688</v>
       </c>
       <c r="C1622" t="s">
         <v>1399</v>
@@ -42467,13 +42941,16 @@
       <c r="E1622">
         <v>0</v>
       </c>
+      <c r="F1622">
+        <v>1</v>
+      </c>
     </row>
     <row r="1623" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1623">
-        <v>30047</v>
+        <v>30009</v>
       </c>
       <c r="B1623" t="s">
-        <v>242</v>
+        <v>1402</v>
       </c>
       <c r="C1623" t="s">
         <v>1399</v>
@@ -42481,27 +42958,39 @@
       <c r="E1623">
         <v>0</v>
       </c>
+      <c r="F1623">
+        <v>1</v>
+      </c>
     </row>
     <row r="1624" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1624">
-        <v>30049</v>
+        <v>30013</v>
       </c>
       <c r="B1624" t="s">
-        <v>1418</v>
+        <v>1403</v>
       </c>
       <c r="C1624" t="s">
         <v>1399</v>
       </c>
+      <c r="D1624" t="s">
+        <v>1404</v>
+      </c>
       <c r="E1624">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F1624">
+        <v>1</v>
+      </c>
+      <c r="G1624" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1625" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1625">
-        <v>30051</v>
+        <v>30015</v>
       </c>
       <c r="B1625" t="s">
-        <v>447</v>
+        <v>1405</v>
       </c>
       <c r="C1625" t="s">
         <v>1399</v>
@@ -42509,13 +42998,16 @@
       <c r="E1625">
         <v>0</v>
       </c>
+      <c r="F1625">
+        <v>1</v>
+      </c>
     </row>
     <row r="1626" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1626">
-        <v>30053</v>
+        <v>30019</v>
       </c>
       <c r="B1626" t="s">
-        <v>159</v>
+        <v>1406</v>
       </c>
       <c r="C1626" t="s">
         <v>1399</v>
@@ -42523,13 +43015,16 @@
       <c r="E1626">
         <v>0</v>
       </c>
+      <c r="F1626">
+        <v>1</v>
+      </c>
     </row>
     <row r="1627" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1627">
-        <v>30057</v>
+        <v>30021</v>
       </c>
       <c r="B1627" t="s">
-        <v>99</v>
+        <v>514</v>
       </c>
       <c r="C1627" t="s">
         <v>1399</v>
@@ -42537,13 +43032,16 @@
       <c r="E1627">
         <v>0</v>
       </c>
+      <c r="F1627">
+        <v>1</v>
+      </c>
     </row>
     <row r="1628" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1628">
-        <v>30055</v>
+        <v>30023</v>
       </c>
       <c r="B1628" t="s">
-        <v>1419</v>
+        <v>1407</v>
       </c>
       <c r="C1628" t="s">
         <v>1399</v>
@@ -42551,13 +43049,16 @@
       <c r="E1628">
         <v>0</v>
       </c>
+      <c r="F1628">
+        <v>1</v>
+      </c>
     </row>
     <row r="1629" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1629">
-        <v>30059</v>
+        <v>30025</v>
       </c>
       <c r="B1629" t="s">
-        <v>1420</v>
+        <v>1408</v>
       </c>
       <c r="C1629" t="s">
         <v>1399</v>
@@ -42565,13 +43066,16 @@
       <c r="E1629">
         <v>0</v>
       </c>
+      <c r="F1629">
+        <v>1</v>
+      </c>
     </row>
     <row r="1630" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1630">
-        <v>30061</v>
+        <v>30029</v>
       </c>
       <c r="B1630" t="s">
-        <v>362</v>
+        <v>1410</v>
       </c>
       <c r="C1630" t="s">
         <v>1399</v>
@@ -42579,27 +43083,39 @@
       <c r="E1630">
         <v>0</v>
       </c>
+      <c r="F1630">
+        <v>1</v>
+      </c>
     </row>
     <row r="1631" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1631">
-        <v>30063</v>
+        <v>30031</v>
       </c>
       <c r="B1631" t="s">
-        <v>1421</v>
+        <v>742</v>
       </c>
       <c r="C1631" t="s">
         <v>1399</v>
       </c>
+      <c r="D1631" t="s">
+        <v>1411</v>
+      </c>
       <c r="E1631">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F1631">
+        <v>1</v>
+      </c>
+      <c r="G1631" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1632" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1632">
-        <v>30065</v>
+        <v>30033</v>
       </c>
       <c r="B1632" t="s">
-        <v>1422</v>
+        <v>344</v>
       </c>
       <c r="C1632" t="s">
         <v>1399</v>
@@ -42607,13 +43123,16 @@
       <c r="E1632">
         <v>0</v>
       </c>
-    </row>
-    <row r="1633" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1632">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1633">
-        <v>30067</v>
+        <v>30035</v>
       </c>
       <c r="B1633" t="s">
-        <v>369</v>
+        <v>1412</v>
       </c>
       <c r="C1633" t="s">
         <v>1399</v>
@@ -42621,13 +43140,16 @@
       <c r="E1633">
         <v>0</v>
       </c>
-    </row>
-    <row r="1634" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1633">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1634">
-        <v>30069</v>
+        <v>30041</v>
       </c>
       <c r="B1634" t="s">
-        <v>1423</v>
+        <v>1415</v>
       </c>
       <c r="C1634" t="s">
         <v>1399</v>
@@ -42635,27 +43157,39 @@
       <c r="E1634">
         <v>0</v>
       </c>
-    </row>
-    <row r="1635" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1634">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1635">
-        <v>30071</v>
+        <v>30043</v>
       </c>
       <c r="B1635" t="s">
-        <v>168</v>
+        <v>89</v>
       </c>
       <c r="C1635" t="s">
         <v>1399</v>
       </c>
+      <c r="D1635" t="s">
+        <v>1416</v>
+      </c>
       <c r="E1635">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1636" spans="1:5" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+      <c r="F1635">
+        <v>1</v>
+      </c>
+      <c r="G1635" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1636">
-        <v>30073</v>
+        <v>30047</v>
       </c>
       <c r="B1636" t="s">
-        <v>1424</v>
+        <v>242</v>
       </c>
       <c r="C1636" t="s">
         <v>1399</v>
@@ -42663,13 +43197,16 @@
       <c r="E1636">
         <v>0</v>
       </c>
-    </row>
-    <row r="1637" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1636">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1637">
-        <v>30075</v>
+        <v>30051</v>
       </c>
       <c r="B1637" t="s">
-        <v>1425</v>
+        <v>447</v>
       </c>
       <c r="C1637" t="s">
         <v>1399</v>
@@ -42677,13 +43214,16 @@
       <c r="E1637">
         <v>0</v>
       </c>
-    </row>
-    <row r="1638" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1637">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1638">
-        <v>30077</v>
+        <v>30053</v>
       </c>
       <c r="B1638" t="s">
-        <v>1014</v>
+        <v>159</v>
       </c>
       <c r="C1638" t="s">
         <v>1399</v>
@@ -42691,13 +43231,16 @@
       <c r="E1638">
         <v>0</v>
       </c>
-    </row>
-    <row r="1639" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1638">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1639">
-        <v>30079</v>
+        <v>30057</v>
       </c>
       <c r="B1639" t="s">
-        <v>172</v>
+        <v>99</v>
       </c>
       <c r="C1639" t="s">
         <v>1399</v>
@@ -42705,13 +43248,16 @@
       <c r="E1639">
         <v>0</v>
       </c>
-    </row>
-    <row r="1640" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1639">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1640">
-        <v>30081</v>
+        <v>30059</v>
       </c>
       <c r="B1640" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="C1640" t="s">
         <v>1399</v>
@@ -42719,13 +43265,16 @@
       <c r="E1640">
         <v>0</v>
       </c>
-    </row>
-    <row r="1641" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1640">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1641">
-        <v>30083</v>
+        <v>30061</v>
       </c>
       <c r="B1641" t="s">
-        <v>784</v>
+        <v>362</v>
       </c>
       <c r="C1641" t="s">
         <v>1399</v>
@@ -42733,13 +43282,16 @@
       <c r="E1641">
         <v>0</v>
       </c>
-    </row>
-    <row r="1642" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1641">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1642">
-        <v>30085</v>
+        <v>30063</v>
       </c>
       <c r="B1642" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="C1642" t="s">
         <v>1399</v>
@@ -42747,13 +43299,16 @@
       <c r="E1642">
         <v>0</v>
       </c>
-    </row>
-    <row r="1643" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1642">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1643">
-        <v>30087</v>
+        <v>30067</v>
       </c>
       <c r="B1643" t="s">
-        <v>1428</v>
+        <v>369</v>
       </c>
       <c r="C1643" t="s">
         <v>1399</v>
@@ -42761,13 +43316,16 @@
       <c r="E1643">
         <v>0</v>
       </c>
-    </row>
-    <row r="1644" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1643">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1644">
-        <v>30089</v>
+        <v>30071</v>
       </c>
       <c r="B1644" t="s">
-        <v>1429</v>
+        <v>168</v>
       </c>
       <c r="C1644" t="s">
         <v>1399</v>
@@ -42775,13 +43333,16 @@
       <c r="E1644">
         <v>0</v>
       </c>
-    </row>
-    <row r="1645" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1644">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1645">
-        <v>30091</v>
+        <v>30073</v>
       </c>
       <c r="B1645" t="s">
-        <v>928</v>
+        <v>1424</v>
       </c>
       <c r="C1645" t="s">
         <v>1399</v>
@@ -42789,13 +43350,16 @@
       <c r="E1645">
         <v>0</v>
       </c>
-    </row>
-    <row r="1646" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1645">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1646">
-        <v>30093</v>
+        <v>30081</v>
       </c>
       <c r="B1646" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
       <c r="C1646" t="s">
         <v>1399</v>
@@ -42803,13 +43367,16 @@
       <c r="E1646">
         <v>0</v>
       </c>
-    </row>
-    <row r="1647" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1646">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1647">
-        <v>30095</v>
+        <v>30083</v>
       </c>
       <c r="B1647" t="s">
-        <v>1431</v>
+        <v>784</v>
       </c>
       <c r="C1647" t="s">
         <v>1399</v>
@@ -42817,13 +43384,16 @@
       <c r="E1647">
         <v>0</v>
       </c>
-    </row>
-    <row r="1648" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1647">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1648">
-        <v>30097</v>
+        <v>30085</v>
       </c>
       <c r="B1648" t="s">
-        <v>1432</v>
+        <v>1427</v>
       </c>
       <c r="C1648" t="s">
         <v>1399</v>
@@ -42831,13 +43401,16 @@
       <c r="E1648">
         <v>0</v>
       </c>
-    </row>
-    <row r="1649" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="F1648">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1649">
-        <v>30099</v>
+        <v>30091</v>
       </c>
       <c r="B1649" t="s">
-        <v>716</v>
+        <v>928</v>
       </c>
       <c r="C1649" t="s">
         <v>1399</v>
@@ -42845,13 +43418,16 @@
       <c r="E1649">
         <v>0</v>
       </c>
-    </row>
-    <row r="1650" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="F1649">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1650">
-        <v>30101</v>
+        <v>30093</v>
       </c>
       <c r="B1650" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="C1650" t="s">
         <v>1399</v>
@@ -42859,13 +43435,16 @@
       <c r="E1650">
         <v>0</v>
       </c>
-    </row>
-    <row r="1651" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="F1650">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1651">
-        <v>30103</v>
+        <v>30097</v>
       </c>
       <c r="B1651" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="C1651" t="s">
         <v>1399</v>
@@ -42873,13 +43452,16 @@
       <c r="E1651">
         <v>0</v>
       </c>
-    </row>
-    <row r="1652" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="F1651">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1652">
-        <v>30105</v>
+        <v>30099</v>
       </c>
       <c r="B1652" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C1652" t="s">
         <v>1399</v>
@@ -42887,13 +43469,16 @@
       <c r="E1652">
         <v>0</v>
       </c>
-    </row>
-    <row r="1653" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="F1652">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1653">
-        <v>30107</v>
+        <v>30101</v>
       </c>
       <c r="B1653" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="C1653" t="s">
         <v>1399</v>
@@ -42901,13 +43486,16 @@
       <c r="E1653">
         <v>0</v>
       </c>
-    </row>
-    <row r="1654" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="F1653">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1654">
-        <v>30109</v>
+        <v>30105</v>
       </c>
       <c r="B1654" t="s">
-        <v>1436</v>
+        <v>718</v>
       </c>
       <c r="C1654" t="s">
         <v>1399</v>
@@ -42915,13 +43503,16 @@
       <c r="E1654">
         <v>0</v>
       </c>
-    </row>
-    <row r="1655" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="F1654">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1655">
-        <v>30111</v>
+        <v>30109</v>
       </c>
       <c r="B1655" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C1655" t="s">
         <v>1399</v>
@@ -42929,13 +43520,16 @@
       <c r="E1655">
         <v>0</v>
       </c>
-    </row>
-    <row r="1656" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="F1655">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1656">
-        <v>37007</v>
+        <v>37003</v>
       </c>
       <c r="B1656" t="s">
-        <v>1442</v>
+        <v>720</v>
       </c>
       <c r="C1656" t="s">
         <v>1439</v>
@@ -42947,330 +43541,330 @@
         <v>0</v>
       </c>
       <c r="F1656">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1656" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1657" spans="1:8" x14ac:dyDescent="0.5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1657">
-        <v>37015</v>
+        <v>37013</v>
       </c>
       <c r="B1657" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="C1657" t="s">
         <v>1439</v>
       </c>
-      <c r="D1657" t="s">
-        <v>1448</v>
-      </c>
       <c r="E1657">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1657">
-        <v>1</v>
-      </c>
-      <c r="H1657" t="s">
-        <v>2488</v>
-      </c>
-    </row>
-    <row r="1658" spans="1:8" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="G1657" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1658">
-        <v>37029</v>
+        <v>37017</v>
       </c>
       <c r="B1658" t="s">
-        <v>497</v>
+        <v>1449</v>
       </c>
       <c r="C1658" t="s">
         <v>1439</v>
       </c>
-      <c r="D1658" t="s">
-        <v>1448</v>
-      </c>
       <c r="E1658">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1658">
-        <v>1</v>
-      </c>
-      <c r="H1658" t="s">
-        <v>2488</v>
-      </c>
-    </row>
-    <row r="1659" spans="1:8" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="G1658" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1659">
-        <v>37041</v>
+        <v>37019</v>
       </c>
       <c r="B1659" t="s">
-        <v>1460</v>
+        <v>1450</v>
       </c>
       <c r="C1659" t="s">
         <v>1439</v>
       </c>
-      <c r="D1659" t="s">
-        <v>1448</v>
-      </c>
       <c r="E1659">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1659">
-        <v>1</v>
-      </c>
-      <c r="H1659" t="s">
-        <v>2488</v>
-      </c>
-    </row>
-    <row r="1660" spans="1:8" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="G1659" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1660">
-        <v>37053</v>
+        <v>37021</v>
       </c>
       <c r="B1660" t="s">
-        <v>1463</v>
+        <v>1451</v>
       </c>
       <c r="C1660" t="s">
         <v>1439</v>
       </c>
-      <c r="D1660" t="s">
-        <v>1448</v>
-      </c>
       <c r="E1660">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1660">
-        <v>1</v>
-      </c>
-      <c r="H1660" t="s">
-        <v>2488</v>
-      </c>
-    </row>
-    <row r="1661" spans="1:8" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="G1660" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1661">
-        <v>37069</v>
+        <v>37025</v>
       </c>
       <c r="B1661" t="s">
-        <v>82</v>
+        <v>1453</v>
       </c>
       <c r="C1661" t="s">
         <v>1439</v>
       </c>
+      <c r="D1661" t="s">
+        <v>1454</v>
+      </c>
       <c r="E1661">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1661">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1662" spans="1:8" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="G1661" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1662">
-        <v>37073</v>
+        <v>37035</v>
       </c>
       <c r="B1662" t="s">
-        <v>1472</v>
+        <v>1458</v>
       </c>
       <c r="C1662" t="s">
         <v>1439</v>
       </c>
-      <c r="D1662" t="s">
-        <v>1448</v>
-      </c>
       <c r="E1662">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1662">
-        <v>1</v>
-      </c>
-      <c r="H1662" t="s">
-        <v>2488</v>
-      </c>
-    </row>
-    <row r="1663" spans="1:8" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="G1662" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1663">
-        <v>37091</v>
+        <v>37077</v>
       </c>
       <c r="B1663" t="s">
-        <v>1480</v>
+        <v>1473</v>
       </c>
       <c r="C1663" t="s">
         <v>1439</v>
       </c>
-      <c r="D1663" t="s">
-        <v>1448</v>
-      </c>
       <c r="E1663">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1663">
-        <v>1</v>
-      </c>
-      <c r="H1663" t="s">
-        <v>2488</v>
-      </c>
-    </row>
-    <row r="1664" spans="1:8" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="G1663" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1664">
-        <v>37139</v>
+        <v>37081</v>
       </c>
       <c r="B1664" t="s">
-        <v>1500</v>
+        <v>1474</v>
       </c>
       <c r="C1664" t="s">
         <v>1439</v>
       </c>
-      <c r="D1664" t="s">
-        <v>1448</v>
-      </c>
       <c r="E1664">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1664">
-        <v>1</v>
-      </c>
-      <c r="H1664" t="s">
-        <v>2488</v>
-      </c>
-    </row>
-    <row r="1665" spans="1:8" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="G1664" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1665">
-        <v>37143</v>
+        <v>37083</v>
       </c>
       <c r="B1665" t="s">
-        <v>1502</v>
+        <v>1475</v>
       </c>
       <c r="C1665" t="s">
         <v>1439</v>
       </c>
       <c r="D1665" t="s">
-        <v>1448</v>
+        <v>1476</v>
       </c>
       <c r="E1665">
         <v>1</v>
       </c>
       <c r="F1665">
-        <v>1</v>
-      </c>
-      <c r="H1665" t="s">
-        <v>2488</v>
-      </c>
-    </row>
-    <row r="1666" spans="1:8" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="G1665" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1666">
-        <v>37001</v>
+        <v>37087</v>
       </c>
       <c r="B1666" t="s">
-        <v>1438</v>
+        <v>1479</v>
       </c>
       <c r="C1666" t="s">
         <v>1439</v>
       </c>
-      <c r="D1666" t="s">
-        <v>1440</v>
-      </c>
       <c r="E1666">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F1666">
+        <v>0</v>
       </c>
       <c r="G1666" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1667" spans="1:8" x14ac:dyDescent="0.5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1667">
-        <v>37003</v>
+        <v>37089</v>
       </c>
       <c r="B1667" t="s">
-        <v>720</v>
+        <v>746</v>
       </c>
       <c r="C1667" t="s">
         <v>1439</v>
       </c>
-      <c r="D1667" t="s">
-        <v>10</v>
-      </c>
       <c r="E1667">
         <v>0</v>
       </c>
+      <c r="F1667">
+        <v>0</v>
+      </c>
       <c r="G1667" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1668" spans="1:8" x14ac:dyDescent="0.5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1668">
-        <v>37005</v>
+        <v>37093</v>
       </c>
       <c r="B1668" t="s">
-        <v>1441</v>
+        <v>1481</v>
       </c>
       <c r="C1668" t="s">
         <v>1439</v>
       </c>
       <c r="D1668" t="s">
-        <v>10</v>
+        <v>1482</v>
       </c>
       <c r="E1668">
+        <v>1</v>
+      </c>
+      <c r="F1668">
         <v>0</v>
       </c>
       <c r="G1668" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1669" spans="1:8" x14ac:dyDescent="0.5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1669">
-        <v>37009</v>
+        <v>37101</v>
       </c>
       <c r="B1669" t="s">
-        <v>1443</v>
+        <v>1485</v>
       </c>
       <c r="C1669" t="s">
         <v>1439</v>
       </c>
-      <c r="D1669" t="s">
-        <v>10</v>
-      </c>
       <c r="E1669">
         <v>0</v>
       </c>
-    </row>
-    <row r="1670" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="F1669">
+        <v>0</v>
+      </c>
+      <c r="G1669" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1670">
-        <v>37011</v>
+        <v>37107</v>
       </c>
       <c r="B1670" t="s">
-        <v>1444</v>
+        <v>1486</v>
       </c>
       <c r="C1670" t="s">
         <v>1439</v>
       </c>
-      <c r="D1670" t="s">
-        <v>1445</v>
-      </c>
       <c r="E1670">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F1670">
+        <v>0</v>
       </c>
       <c r="G1670" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1671" spans="1:8" x14ac:dyDescent="0.5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1671">
-        <v>37013</v>
+        <v>37113</v>
       </c>
       <c r="B1671" t="s">
-        <v>1446</v>
+        <v>98</v>
       </c>
       <c r="C1671" t="s">
         <v>1439</v>
       </c>
+      <c r="D1671" t="s">
+        <v>1487</v>
+      </c>
       <c r="E1671">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1672" spans="1:8" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+      <c r="F1671">
+        <v>0</v>
+      </c>
+      <c r="G1671" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1672">
-        <v>37017</v>
+        <v>37117</v>
       </c>
       <c r="B1672" t="s">
-        <v>1449</v>
+        <v>450</v>
       </c>
       <c r="C1672" t="s">
         <v>1439</v>
@@ -43278,13 +43872,19 @@
       <c r="E1672">
         <v>0</v>
       </c>
-    </row>
-    <row r="1673" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="F1672">
+        <v>0</v>
+      </c>
+      <c r="G1672" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1673">
-        <v>37019</v>
+        <v>37121</v>
       </c>
       <c r="B1673" t="s">
-        <v>1450</v>
+        <v>554</v>
       </c>
       <c r="C1673" t="s">
         <v>1439</v>
@@ -43292,101 +43892,125 @@
       <c r="E1673">
         <v>0</v>
       </c>
-    </row>
-    <row r="1674" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="F1673">
+        <v>0</v>
+      </c>
+      <c r="G1673" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1674">
-        <v>37021</v>
+        <v>37135</v>
       </c>
       <c r="B1674" t="s">
-        <v>1451</v>
+        <v>260</v>
       </c>
       <c r="C1674" t="s">
         <v>1439</v>
       </c>
+      <c r="D1674" t="s">
+        <v>1498</v>
+      </c>
       <c r="E1674">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1675" spans="1:8" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+      <c r="F1674">
+        <v>0</v>
+      </c>
+      <c r="G1674" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1675">
-        <v>37023</v>
+        <v>37149</v>
       </c>
       <c r="B1675" t="s">
-        <v>495</v>
+        <v>170</v>
       </c>
       <c r="C1675" t="s">
         <v>1439</v>
       </c>
-      <c r="D1675" t="s">
-        <v>1452</v>
-      </c>
       <c r="E1675">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F1675">
+        <v>0</v>
       </c>
       <c r="G1675" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1676" spans="1:8" x14ac:dyDescent="0.5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1676">
-        <v>37025</v>
+        <v>37151</v>
       </c>
       <c r="B1676" t="s">
-        <v>1453</v>
+        <v>114</v>
       </c>
       <c r="C1676" t="s">
         <v>1439</v>
       </c>
-      <c r="D1676" t="s">
-        <v>1454</v>
-      </c>
       <c r="E1676">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F1676">
+        <v>0</v>
       </c>
       <c r="G1676" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1677" spans="1:8" x14ac:dyDescent="0.5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1677">
-        <v>37027</v>
+        <v>37155</v>
       </c>
       <c r="B1677" t="s">
-        <v>959</v>
+        <v>1505</v>
       </c>
       <c r="C1677" t="s">
         <v>1439</v>
       </c>
-      <c r="D1677" t="s">
-        <v>1455</v>
-      </c>
       <c r="E1677">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F1677">
+        <v>0</v>
       </c>
       <c r="G1677" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1678" spans="1:8" x14ac:dyDescent="0.5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1678">
-        <v>37031</v>
+        <v>37157</v>
       </c>
       <c r="B1678" t="s">
-        <v>1456</v>
+        <v>1506</v>
       </c>
       <c r="C1678" t="s">
         <v>1439</v>
       </c>
+      <c r="D1678" t="s">
+        <v>1507</v>
+      </c>
       <c r="E1678">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1679" spans="1:8" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+      <c r="F1678">
+        <v>0</v>
+      </c>
+      <c r="G1678" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1679">
-        <v>37033</v>
+        <v>37161</v>
       </c>
       <c r="B1679" t="s">
-        <v>1457</v>
+        <v>1508</v>
       </c>
       <c r="C1679" t="s">
         <v>1439</v>
@@ -43394,27 +44018,42 @@
       <c r="E1679">
         <v>0</v>
       </c>
-    </row>
-    <row r="1680" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="F1679">
+        <v>0</v>
+      </c>
+      <c r="G1679" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1680">
-        <v>37035</v>
+        <v>37169</v>
       </c>
       <c r="B1680" t="s">
-        <v>1458</v>
+        <v>1511</v>
       </c>
       <c r="C1680" t="s">
         <v>1439</v>
       </c>
+      <c r="D1680" t="s">
+        <v>1512</v>
+      </c>
       <c r="E1680">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1681" spans="1:7" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+      <c r="F1680">
+        <v>0</v>
+      </c>
+      <c r="G1680" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1681">
-        <v>37037</v>
+        <v>37173</v>
       </c>
       <c r="B1681" t="s">
-        <v>501</v>
+        <v>1514</v>
       </c>
       <c r="C1681" t="s">
         <v>1439</v>
@@ -43422,33 +44061,39 @@
       <c r="E1681">
         <v>0</v>
       </c>
-    </row>
-    <row r="1682" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="F1681">
+        <v>0</v>
+      </c>
+      <c r="G1681" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1682">
-        <v>37039</v>
+        <v>37175</v>
       </c>
       <c r="B1682" t="s">
-        <v>60</v>
+        <v>1515</v>
       </c>
       <c r="C1682" t="s">
         <v>1439</v>
       </c>
-      <c r="D1682" t="s">
-        <v>1459</v>
-      </c>
       <c r="E1682">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F1682">
+        <v>0</v>
       </c>
       <c r="G1682" t="s">
-        <v>2468</v>
-      </c>
-    </row>
-    <row r="1683" spans="1:7" x14ac:dyDescent="0.5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1683">
-        <v>37043</v>
+        <v>37177</v>
       </c>
       <c r="B1683" t="s">
-        <v>65</v>
+        <v>1516</v>
       </c>
       <c r="C1683" t="s">
         <v>1439</v>
@@ -43456,13 +44101,19 @@
       <c r="E1683">
         <v>0</v>
       </c>
-    </row>
-    <row r="1684" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="F1683">
+        <v>0</v>
+      </c>
+      <c r="G1683" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1684">
-        <v>37045</v>
+        <v>37179</v>
       </c>
       <c r="B1684" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="C1684" t="s">
         <v>1439</v>
@@ -43470,13 +44121,19 @@
       <c r="E1684">
         <v>0</v>
       </c>
-    </row>
-    <row r="1685" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="F1684">
+        <v>0</v>
+      </c>
+      <c r="G1684" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1685">
-        <v>37047</v>
+        <v>37181</v>
       </c>
       <c r="B1685" t="s">
-        <v>1461</v>
+        <v>1517</v>
       </c>
       <c r="C1685" t="s">
         <v>1439</v>
@@ -43484,13 +44141,19 @@
       <c r="E1685">
         <v>0</v>
       </c>
-    </row>
-    <row r="1686" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="F1685">
+        <v>0</v>
+      </c>
+      <c r="G1685" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1686">
-        <v>37049</v>
+        <v>37187</v>
       </c>
       <c r="B1686" t="s">
-        <v>1462</v>
+        <v>125</v>
       </c>
       <c r="C1686" t="s">
         <v>1439</v>
@@ -43498,13 +44161,19 @@
       <c r="E1686">
         <v>0</v>
       </c>
-    </row>
-    <row r="1687" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="F1686">
+        <v>0</v>
+      </c>
+      <c r="G1686" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1687">
-        <v>37051</v>
+        <v>37189</v>
       </c>
       <c r="B1687" t="s">
-        <v>732</v>
+        <v>1519</v>
       </c>
       <c r="C1687" t="s">
         <v>1439</v>
@@ -43512,13 +44181,19 @@
       <c r="E1687">
         <v>0</v>
       </c>
-    </row>
-    <row r="1688" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="F1687">
+        <v>0</v>
+      </c>
+      <c r="G1687" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1688">
-        <v>37055</v>
+        <v>37193</v>
       </c>
       <c r="B1688" t="s">
-        <v>1464</v>
+        <v>591</v>
       </c>
       <c r="C1688" t="s">
         <v>1439</v>
@@ -43526,27 +44201,42 @@
       <c r="E1688">
         <v>0</v>
       </c>
-    </row>
-    <row r="1689" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="F1688">
+        <v>0</v>
+      </c>
+      <c r="G1688" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1689">
-        <v>37057</v>
+        <v>37195</v>
       </c>
       <c r="B1689" t="s">
-        <v>1465</v>
+        <v>939</v>
       </c>
       <c r="C1689" t="s">
         <v>1439</v>
       </c>
+      <c r="D1689" t="s">
+        <v>1520</v>
+      </c>
       <c r="E1689">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1690" spans="1:7" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+      <c r="F1689">
+        <v>0</v>
+      </c>
+      <c r="G1689" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1690">
-        <v>37059</v>
+        <v>37197</v>
       </c>
       <c r="B1690" t="s">
-        <v>1466</v>
+        <v>1521</v>
       </c>
       <c r="C1690" t="s">
         <v>1439</v>
@@ -43554,185 +44244,257 @@
       <c r="E1690">
         <v>0</v>
       </c>
-    </row>
-    <row r="1691" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="F1690">
+        <v>0</v>
+      </c>
+      <c r="G1690" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1691">
-        <v>37061</v>
+        <v>37001</v>
       </c>
       <c r="B1691" t="s">
-        <v>1467</v>
+        <v>1438</v>
       </c>
       <c r="C1691" t="s">
         <v>1439</v>
       </c>
+      <c r="D1691" t="s">
+        <v>1440</v>
+      </c>
       <c r="E1691">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1692" spans="1:7" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+      <c r="F1691">
+        <v>1</v>
+      </c>
+      <c r="G1691" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1692">
-        <v>37063</v>
+        <v>37005</v>
       </c>
       <c r="B1692" t="s">
-        <v>1468</v>
+        <v>1441</v>
       </c>
       <c r="C1692" t="s">
         <v>1439</v>
       </c>
+      <c r="D1692" t="s">
+        <v>10</v>
+      </c>
       <c r="E1692">
         <v>0</v>
       </c>
-    </row>
-    <row r="1693" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="F1692">
+        <v>1</v>
+      </c>
+      <c r="G1692" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1693">
-        <v>37065</v>
+        <v>37007</v>
       </c>
       <c r="B1693" t="s">
-        <v>1469</v>
+        <v>1442</v>
       </c>
       <c r="C1693" t="s">
         <v>1439</v>
       </c>
+      <c r="D1693" t="s">
+        <v>10</v>
+      </c>
       <c r="E1693">
         <v>0</v>
       </c>
-    </row>
-    <row r="1694" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="F1693">
+        <v>1</v>
+      </c>
+      <c r="G1693" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1694">
-        <v>37067</v>
+        <v>37009</v>
       </c>
       <c r="B1694" t="s">
-        <v>527</v>
+        <v>1443</v>
       </c>
       <c r="C1694" t="s">
         <v>1439</v>
       </c>
       <c r="D1694" t="s">
-        <v>1470</v>
+        <v>10</v>
       </c>
       <c r="E1694">
-        <v>1</v>
-      </c>
-      <c r="G1694" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1695" spans="1:7" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="F1694">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1695">
-        <v>37071</v>
+        <v>37011</v>
       </c>
       <c r="B1695" t="s">
-        <v>1471</v>
+        <v>1444</v>
       </c>
       <c r="C1695" t="s">
         <v>1439</v>
       </c>
+      <c r="D1695" t="s">
+        <v>1445</v>
+      </c>
       <c r="E1695">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1696" spans="1:7" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+      <c r="F1695">
+        <v>1</v>
+      </c>
+      <c r="G1695" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1696">
-        <v>37075</v>
+        <v>37015</v>
       </c>
       <c r="B1696" t="s">
-        <v>194</v>
+        <v>1447</v>
       </c>
       <c r="C1696" t="s">
         <v>1439</v>
       </c>
+      <c r="D1696" t="s">
+        <v>1448</v>
+      </c>
       <c r="E1696">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1697" spans="1:7" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+      <c r="F1696">
+        <v>1</v>
+      </c>
+      <c r="H1696" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1697">
-        <v>37077</v>
+        <v>37023</v>
       </c>
       <c r="B1697" t="s">
-        <v>1473</v>
+        <v>495</v>
       </c>
       <c r="C1697" t="s">
         <v>1439</v>
       </c>
+      <c r="D1697" t="s">
+        <v>1452</v>
+      </c>
       <c r="E1697">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1698" spans="1:7" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+      <c r="F1697">
+        <v>1</v>
+      </c>
+      <c r="G1697" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1698">
-        <v>37079</v>
+        <v>37027</v>
       </c>
       <c r="B1698" t="s">
-        <v>84</v>
+        <v>959</v>
       </c>
       <c r="C1698" t="s">
         <v>1439</v>
       </c>
+      <c r="D1698" t="s">
+        <v>1455</v>
+      </c>
       <c r="E1698">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1699" spans="1:7" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+      <c r="F1698">
+        <v>1</v>
+      </c>
+      <c r="G1698" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1699">
-        <v>37081</v>
+        <v>37029</v>
       </c>
       <c r="B1699" t="s">
-        <v>1474</v>
+        <v>497</v>
       </c>
       <c r="C1699" t="s">
         <v>1439</v>
       </c>
+      <c r="D1699" t="s">
+        <v>1448</v>
+      </c>
       <c r="E1699">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1700" spans="1:7" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+      <c r="F1699">
+        <v>1</v>
+      </c>
+      <c r="H1699" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1700">
-        <v>37083</v>
+        <v>37031</v>
       </c>
       <c r="B1700" t="s">
-        <v>1475</v>
+        <v>1456</v>
       </c>
       <c r="C1700" t="s">
         <v>1439</v>
       </c>
-      <c r="D1700" t="s">
-        <v>1476</v>
-      </c>
       <c r="E1700">
-        <v>1</v>
-      </c>
-      <c r="G1700" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1701" spans="1:7" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="F1700">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1701">
-        <v>37085</v>
+        <v>37033</v>
       </c>
       <c r="B1701" t="s">
-        <v>1477</v>
+        <v>1457</v>
       </c>
       <c r="C1701" t="s">
         <v>1439</v>
       </c>
-      <c r="D1701" t="s">
-        <v>1478</v>
-      </c>
       <c r="E1701">
-        <v>1</v>
-      </c>
-      <c r="G1701" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1702" spans="1:7" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="F1701">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1702">
-        <v>37087</v>
+        <v>37037</v>
       </c>
       <c r="B1702" t="s">
-        <v>1479</v>
+        <v>501</v>
       </c>
       <c r="C1702" t="s">
         <v>1439</v>
@@ -43740,47 +44502,62 @@
       <c r="E1702">
         <v>0</v>
       </c>
-    </row>
-    <row r="1703" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="F1702">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1703">
-        <v>37089</v>
+        <v>37039</v>
       </c>
       <c r="B1703" t="s">
-        <v>746</v>
+        <v>60</v>
       </c>
       <c r="C1703" t="s">
         <v>1439</v>
       </c>
+      <c r="D1703" t="s">
+        <v>1459</v>
+      </c>
       <c r="E1703">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1704" spans="1:7" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+      <c r="F1703">
+        <v>1</v>
+      </c>
+      <c r="G1703" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1704">
-        <v>37093</v>
+        <v>37041</v>
       </c>
       <c r="B1704" t="s">
-        <v>1481</v>
+        <v>1460</v>
       </c>
       <c r="C1704" t="s">
         <v>1439</v>
       </c>
       <c r="D1704" t="s">
-        <v>1482</v>
+        <v>1448</v>
       </c>
       <c r="E1704">
         <v>1</v>
       </c>
-      <c r="G1704" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1705" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="F1704">
+        <v>1</v>
+      </c>
+      <c r="H1704" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1705">
-        <v>37095</v>
+        <v>37043</v>
       </c>
       <c r="B1705" t="s">
-        <v>1483</v>
+        <v>65</v>
       </c>
       <c r="C1705" t="s">
         <v>1439</v>
@@ -43788,13 +44565,16 @@
       <c r="E1705">
         <v>0</v>
       </c>
-    </row>
-    <row r="1706" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="F1705">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1706">
-        <v>37097</v>
+        <v>37045</v>
       </c>
       <c r="B1706" t="s">
-        <v>1484</v>
+        <v>139</v>
       </c>
       <c r="C1706" t="s">
         <v>1439</v>
@@ -43802,13 +44582,16 @@
       <c r="E1706">
         <v>0</v>
       </c>
-    </row>
-    <row r="1707" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="F1706">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1707">
-        <v>37099</v>
+        <v>37047</v>
       </c>
       <c r="B1707" t="s">
-        <v>88</v>
+        <v>1461</v>
       </c>
       <c r="C1707" t="s">
         <v>1439</v>
@@ -43816,13 +44599,16 @@
       <c r="E1707">
         <v>0</v>
       </c>
-    </row>
-    <row r="1708" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="F1707">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1708">
-        <v>37101</v>
+        <v>37049</v>
       </c>
       <c r="B1708" t="s">
-        <v>1485</v>
+        <v>1462</v>
       </c>
       <c r="C1708" t="s">
         <v>1439</v>
@@ -43830,13 +44616,16 @@
       <c r="E1708">
         <v>0</v>
       </c>
-    </row>
-    <row r="1709" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="F1708">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1709">
-        <v>37103</v>
+        <v>37051</v>
       </c>
       <c r="B1709" t="s">
-        <v>546</v>
+        <v>732</v>
       </c>
       <c r="C1709" t="s">
         <v>1439</v>
@@ -43844,27 +44633,39 @@
       <c r="E1709">
         <v>0</v>
       </c>
-    </row>
-    <row r="1710" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="F1709">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1710">
-        <v>37105</v>
+        <v>37053</v>
       </c>
       <c r="B1710" t="s">
-        <v>94</v>
+        <v>1463</v>
       </c>
       <c r="C1710" t="s">
         <v>1439</v>
       </c>
+      <c r="D1710" t="s">
+        <v>1448</v>
+      </c>
       <c r="E1710">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1711" spans="1:7" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+      <c r="F1710">
+        <v>1</v>
+      </c>
+      <c r="H1710" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1711">
-        <v>37107</v>
+        <v>37055</v>
       </c>
       <c r="B1711" t="s">
-        <v>1486</v>
+        <v>1464</v>
       </c>
       <c r="C1711" t="s">
         <v>1439</v>
@@ -43872,13 +44673,16 @@
       <c r="E1711">
         <v>0</v>
       </c>
-    </row>
-    <row r="1712" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="F1711">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1712">
-        <v>37109</v>
+        <v>37057</v>
       </c>
       <c r="B1712" t="s">
-        <v>159</v>
+        <v>1465</v>
       </c>
       <c r="C1712" t="s">
         <v>1439</v>
@@ -43886,33 +44690,33 @@
       <c r="E1712">
         <v>0</v>
       </c>
-    </row>
-    <row r="1713" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="F1712">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1713">
-        <v>37113</v>
+        <v>37059</v>
       </c>
       <c r="B1713" t="s">
-        <v>98</v>
+        <v>1466</v>
       </c>
       <c r="C1713" t="s">
         <v>1439</v>
       </c>
-      <c r="D1713" t="s">
-        <v>1487</v>
-      </c>
       <c r="E1713">
-        <v>1</v>
-      </c>
-      <c r="G1713" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1714" spans="1:7" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="F1713">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1714">
-        <v>37115</v>
+        <v>37061</v>
       </c>
       <c r="B1714" t="s">
-        <v>99</v>
+        <v>1467</v>
       </c>
       <c r="C1714" t="s">
         <v>1439</v>
@@ -43920,13 +44724,16 @@
       <c r="E1714">
         <v>0</v>
       </c>
-    </row>
-    <row r="1715" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="F1714">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1715">
-        <v>37117</v>
+        <v>37063</v>
       </c>
       <c r="B1715" t="s">
-        <v>450</v>
+        <v>1468</v>
       </c>
       <c r="C1715" t="s">
         <v>1439</v>
@@ -43934,47 +44741,56 @@
       <c r="E1715">
         <v>0</v>
       </c>
-    </row>
-    <row r="1716" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="F1715">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1716">
-        <v>37111</v>
+        <v>37065</v>
       </c>
       <c r="B1716" t="s">
-        <v>1488</v>
+        <v>1469</v>
       </c>
       <c r="C1716" t="s">
         <v>1439</v>
       </c>
-      <c r="D1716" t="s">
-        <v>1489</v>
-      </c>
       <c r="E1716">
-        <v>1</v>
-      </c>
-      <c r="G1716" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1717" spans="1:7" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="F1716">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1717">
-        <v>37119</v>
+        <v>37067</v>
       </c>
       <c r="B1717" t="s">
-        <v>1490</v>
+        <v>527</v>
       </c>
       <c r="C1717" t="s">
         <v>1439</v>
       </c>
+      <c r="D1717" t="s">
+        <v>1470</v>
+      </c>
       <c r="E1717">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1718" spans="1:7" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+      <c r="F1717">
+        <v>1</v>
+      </c>
+      <c r="G1717" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1718">
-        <v>37121</v>
+        <v>37069</v>
       </c>
       <c r="B1718" t="s">
-        <v>554</v>
+        <v>82</v>
       </c>
       <c r="C1718" t="s">
         <v>1439</v>
@@ -43982,13 +44798,16 @@
       <c r="E1718">
         <v>0</v>
       </c>
-    </row>
-    <row r="1719" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="F1718">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1719">
-        <v>37123</v>
+        <v>37071</v>
       </c>
       <c r="B1719" t="s">
-        <v>107</v>
+        <v>1471</v>
       </c>
       <c r="C1719" t="s">
         <v>1439</v>
@@ -43996,27 +44815,39 @@
       <c r="E1719">
         <v>0</v>
       </c>
-    </row>
-    <row r="1720" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="F1719">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1720">
-        <v>37125</v>
+        <v>37073</v>
       </c>
       <c r="B1720" t="s">
-        <v>1491</v>
+        <v>1472</v>
       </c>
       <c r="C1720" t="s">
         <v>1439</v>
       </c>
+      <c r="D1720" t="s">
+        <v>1448</v>
+      </c>
       <c r="E1720">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1721" spans="1:7" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+      <c r="F1720">
+        <v>1</v>
+      </c>
+      <c r="H1720" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1721">
-        <v>37127</v>
+        <v>37075</v>
       </c>
       <c r="B1721" t="s">
-        <v>1492</v>
+        <v>194</v>
       </c>
       <c r="C1721" t="s">
         <v>1439</v>
@@ -44024,87 +44855,96 @@
       <c r="E1721">
         <v>0</v>
       </c>
-    </row>
-    <row r="1722" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="F1721">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1722">
-        <v>37129</v>
+        <v>37079</v>
       </c>
       <c r="B1722" t="s">
-        <v>1493</v>
+        <v>84</v>
       </c>
       <c r="C1722" t="s">
         <v>1439</v>
       </c>
-      <c r="D1722" t="s">
-        <v>1494</v>
-      </c>
       <c r="E1722">
-        <v>1</v>
-      </c>
-      <c r="G1722" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1723" spans="1:7" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="F1722">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1723">
-        <v>37131</v>
+        <v>37085</v>
       </c>
       <c r="B1723" t="s">
-        <v>1495</v>
+        <v>1477</v>
       </c>
       <c r="C1723" t="s">
         <v>1439</v>
       </c>
+      <c r="D1723" t="s">
+        <v>1478</v>
+      </c>
       <c r="E1723">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1724" spans="1:7" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+      <c r="F1723">
+        <v>1</v>
+      </c>
+      <c r="G1723" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1724">
-        <v>37133</v>
+        <v>37091</v>
       </c>
       <c r="B1724" t="s">
-        <v>1496</v>
+        <v>1480</v>
       </c>
       <c r="C1724" t="s">
         <v>1439</v>
       </c>
       <c r="D1724" t="s">
-        <v>1497</v>
+        <v>1448</v>
       </c>
       <c r="E1724">
         <v>1</v>
       </c>
-      <c r="G1724" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1725" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="F1724">
+        <v>1</v>
+      </c>
+      <c r="H1724" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1725">
-        <v>37135</v>
+        <v>37095</v>
       </c>
       <c r="B1725" t="s">
-        <v>260</v>
+        <v>1483</v>
       </c>
       <c r="C1725" t="s">
         <v>1439</v>
       </c>
-      <c r="D1725" t="s">
-        <v>1498</v>
-      </c>
       <c r="E1725">
-        <v>1</v>
-      </c>
-      <c r="G1725" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1726" spans="1:7" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="F1725">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1726">
-        <v>37137</v>
+        <v>37097</v>
       </c>
       <c r="B1726" t="s">
-        <v>1499</v>
+        <v>1484</v>
       </c>
       <c r="C1726" t="s">
         <v>1439</v>
@@ -44112,13 +44952,16 @@
       <c r="E1726">
         <v>0</v>
       </c>
-    </row>
-    <row r="1727" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="F1726">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1727">
-        <v>37141</v>
+        <v>37099</v>
       </c>
       <c r="B1727" t="s">
-        <v>1501</v>
+        <v>88</v>
       </c>
       <c r="C1727" t="s">
         <v>1439</v>
@@ -44126,13 +44969,16 @@
       <c r="E1727">
         <v>0</v>
       </c>
-    </row>
-    <row r="1728" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="F1727">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1728">
-        <v>37145</v>
+        <v>37103</v>
       </c>
       <c r="B1728" t="s">
-        <v>1503</v>
+        <v>546</v>
       </c>
       <c r="C1728" t="s">
         <v>1439</v>
@@ -44140,13 +44986,16 @@
       <c r="E1728">
         <v>0</v>
       </c>
-    </row>
-    <row r="1729" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="F1728">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1729">
-        <v>37147</v>
+        <v>37105</v>
       </c>
       <c r="B1729" t="s">
-        <v>1504</v>
+        <v>94</v>
       </c>
       <c r="C1729" t="s">
         <v>1439</v>
@@ -44154,13 +45003,16 @@
       <c r="E1729">
         <v>0</v>
       </c>
-    </row>
-    <row r="1730" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="F1729">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1730">
-        <v>37149</v>
+        <v>37109</v>
       </c>
       <c r="B1730" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C1730" t="s">
         <v>1439</v>
@@ -44168,13 +45020,16 @@
       <c r="E1730">
         <v>0</v>
       </c>
-    </row>
-    <row r="1731" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="F1730">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1731">
-        <v>37151</v>
+        <v>37115</v>
       </c>
       <c r="B1731" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C1731" t="s">
         <v>1439</v>
@@ -44182,27 +45037,39 @@
       <c r="E1731">
         <v>0</v>
       </c>
-    </row>
-    <row r="1732" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="F1731">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1732">
-        <v>37153</v>
+        <v>37111</v>
       </c>
       <c r="B1732" t="s">
-        <v>564</v>
+        <v>1488</v>
       </c>
       <c r="C1732" t="s">
         <v>1439</v>
       </c>
+      <c r="D1732" t="s">
+        <v>1489</v>
+      </c>
       <c r="E1732">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1733" spans="1:7" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+      <c r="F1732">
+        <v>1</v>
+      </c>
+      <c r="G1732" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1733">
-        <v>37155</v>
+        <v>37119</v>
       </c>
       <c r="B1733" t="s">
-        <v>1505</v>
+        <v>1490</v>
       </c>
       <c r="C1733" t="s">
         <v>1439</v>
@@ -44210,33 +45077,33 @@
       <c r="E1733">
         <v>0</v>
       </c>
-    </row>
-    <row r="1734" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="F1733">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1734">
-        <v>37157</v>
+        <v>37123</v>
       </c>
       <c r="B1734" t="s">
-        <v>1506</v>
+        <v>107</v>
       </c>
       <c r="C1734" t="s">
         <v>1439</v>
       </c>
-      <c r="D1734" t="s">
-        <v>1507</v>
-      </c>
       <c r="E1734">
-        <v>1</v>
-      </c>
-      <c r="G1734" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1735" spans="1:7" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="F1734">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1735">
-        <v>37159</v>
+        <v>37125</v>
       </c>
       <c r="B1735" t="s">
-        <v>1017</v>
+        <v>1491</v>
       </c>
       <c r="C1735" t="s">
         <v>1439</v>
@@ -44244,13 +45111,16 @@
       <c r="E1735">
         <v>0</v>
       </c>
-    </row>
-    <row r="1736" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="F1735">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1736">
-        <v>37161</v>
+        <v>37127</v>
       </c>
       <c r="B1736" t="s">
-        <v>1508</v>
+        <v>1492</v>
       </c>
       <c r="C1736" t="s">
         <v>1439</v>
@@ -44258,27 +45128,39 @@
       <c r="E1736">
         <v>0</v>
       </c>
-    </row>
-    <row r="1737" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="F1736">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1737">
-        <v>37163</v>
+        <v>37129</v>
       </c>
       <c r="B1737" t="s">
-        <v>1509</v>
+        <v>1493</v>
       </c>
       <c r="C1737" t="s">
         <v>1439</v>
       </c>
+      <c r="D1737" t="s">
+        <v>1494</v>
+      </c>
       <c r="E1737">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1738" spans="1:7" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+      <c r="F1737">
+        <v>1</v>
+      </c>
+      <c r="G1737" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1738">
-        <v>37165</v>
+        <v>37131</v>
       </c>
       <c r="B1738" t="s">
-        <v>1347</v>
+        <v>1495</v>
       </c>
       <c r="C1738" t="s">
         <v>1439</v>
@@ -44286,61 +45168,79 @@
       <c r="E1738">
         <v>0</v>
       </c>
-    </row>
-    <row r="1739" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="F1738">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1739">
-        <v>37167</v>
+        <v>37133</v>
       </c>
       <c r="B1739" t="s">
-        <v>1510</v>
+        <v>1496</v>
       </c>
       <c r="C1739" t="s">
         <v>1439</v>
       </c>
+      <c r="D1739" t="s">
+        <v>1497</v>
+      </c>
       <c r="E1739">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1740" spans="1:7" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+      <c r="F1739">
+        <v>1</v>
+      </c>
+      <c r="G1739" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1740">
-        <v>37169</v>
+        <v>37137</v>
       </c>
       <c r="B1740" t="s">
-        <v>1511</v>
+        <v>1499</v>
       </c>
       <c r="C1740" t="s">
         <v>1439</v>
       </c>
-      <c r="D1740" t="s">
-        <v>1512</v>
-      </c>
       <c r="E1740">
-        <v>1</v>
-      </c>
-      <c r="G1740" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="1741" spans="1:7" x14ac:dyDescent="0.5">
+        <v>0</v>
+      </c>
+      <c r="F1740">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1741">
-        <v>37171</v>
+        <v>37139</v>
       </c>
       <c r="B1741" t="s">
-        <v>1513</v>
+        <v>1500</v>
       </c>
       <c r="C1741" t="s">
         <v>1439</v>
       </c>
+      <c r="D1741" t="s">
+        <v>1448</v>
+      </c>
       <c r="E1741">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1742" spans="1:7" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+      <c r="F1741">
+        <v>1</v>
+      </c>
+      <c r="H1741" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1742">
-        <v>37173</v>
+        <v>37141</v>
       </c>
       <c r="B1742" t="s">
-        <v>1514</v>
+        <v>1501</v>
       </c>
       <c r="C1742" t="s">
         <v>1439</v>
@@ -44348,27 +45248,39 @@
       <c r="E1742">
         <v>0</v>
       </c>
-    </row>
-    <row r="1743" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="F1742">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1743">
-        <v>37175</v>
+        <v>37143</v>
       </c>
       <c r="B1743" t="s">
-        <v>1515</v>
+        <v>1502</v>
       </c>
       <c r="C1743" t="s">
         <v>1439</v>
       </c>
+      <c r="D1743" t="s">
+        <v>1448</v>
+      </c>
       <c r="E1743">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1744" spans="1:7" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+      <c r="F1743">
+        <v>1</v>
+      </c>
+      <c r="H1743" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1744">
-        <v>37177</v>
+        <v>37145</v>
       </c>
       <c r="B1744" t="s">
-        <v>1516</v>
+        <v>1503</v>
       </c>
       <c r="C1744" t="s">
         <v>1439</v>
@@ -44376,13 +45288,16 @@
       <c r="E1744">
         <v>0</v>
       </c>
+      <c r="F1744">
+        <v>1</v>
+      </c>
     </row>
     <row r="1745" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1745">
-        <v>37179</v>
+        <v>37147</v>
       </c>
       <c r="B1745" t="s">
-        <v>182</v>
+        <v>1504</v>
       </c>
       <c r="C1745" t="s">
         <v>1439</v>
@@ -44390,13 +45305,16 @@
       <c r="E1745">
         <v>0</v>
       </c>
+      <c r="F1745">
+        <v>1</v>
+      </c>
     </row>
     <row r="1746" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1746">
-        <v>37181</v>
+        <v>37153</v>
       </c>
       <c r="B1746" t="s">
-        <v>1517</v>
+        <v>564</v>
       </c>
       <c r="C1746" t="s">
         <v>1439</v>
@@ -44404,13 +45322,16 @@
       <c r="E1746">
         <v>0</v>
       </c>
+      <c r="F1746">
+        <v>1</v>
+      </c>
     </row>
     <row r="1747" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1747">
-        <v>37183</v>
+        <v>37159</v>
       </c>
       <c r="B1747" t="s">
-        <v>1518</v>
+        <v>1017</v>
       </c>
       <c r="C1747" t="s">
         <v>1439</v>
@@ -44418,13 +45339,16 @@
       <c r="E1747">
         <v>0</v>
       </c>
+      <c r="F1747">
+        <v>1</v>
+      </c>
     </row>
     <row r="1748" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1748">
-        <v>37185</v>
+        <v>37163</v>
       </c>
       <c r="B1748" t="s">
-        <v>586</v>
+        <v>1509</v>
       </c>
       <c r="C1748" t="s">
         <v>1439</v>
@@ -44432,13 +45356,16 @@
       <c r="E1748">
         <v>0</v>
       </c>
+      <c r="F1748">
+        <v>1</v>
+      </c>
     </row>
     <row r="1749" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1749">
-        <v>37187</v>
+        <v>37165</v>
       </c>
       <c r="B1749" t="s">
-        <v>125</v>
+        <v>1347</v>
       </c>
       <c r="C1749" t="s">
         <v>1439</v>
@@ -44446,13 +45373,16 @@
       <c r="E1749">
         <v>0</v>
       </c>
+      <c r="F1749">
+        <v>1</v>
+      </c>
     </row>
     <row r="1750" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1750">
-        <v>37189</v>
+        <v>37167</v>
       </c>
       <c r="B1750" t="s">
-        <v>1519</v>
+        <v>1510</v>
       </c>
       <c r="C1750" t="s">
         <v>1439</v>
@@ -44460,13 +45390,16 @@
       <c r="E1750">
         <v>0</v>
       </c>
+      <c r="F1750">
+        <v>1</v>
+      </c>
     </row>
     <row r="1751" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1751">
-        <v>37191</v>
+        <v>37171</v>
       </c>
       <c r="B1751" t="s">
-        <v>587</v>
+        <v>1513</v>
       </c>
       <c r="C1751" t="s">
         <v>1439</v>
@@ -44474,13 +45407,16 @@
       <c r="E1751">
         <v>0</v>
       </c>
+      <c r="F1751">
+        <v>1</v>
+      </c>
     </row>
     <row r="1752" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1752">
-        <v>37193</v>
+        <v>37183</v>
       </c>
       <c r="B1752" t="s">
-        <v>591</v>
+        <v>1518</v>
       </c>
       <c r="C1752" t="s">
         <v>1439</v>
@@ -44488,39 +45424,42 @@
       <c r="E1752">
         <v>0</v>
       </c>
+      <c r="F1752">
+        <v>1</v>
+      </c>
     </row>
     <row r="1753" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1753">
-        <v>37195</v>
+        <v>37185</v>
       </c>
       <c r="B1753" t="s">
-        <v>939</v>
+        <v>586</v>
       </c>
       <c r="C1753" t="s">
         <v>1439</v>
       </c>
-      <c r="D1753" t="s">
-        <v>1520</v>
-      </c>
       <c r="E1753">
-        <v>1</v>
-      </c>
-      <c r="G1753" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="F1753">
+        <v>1</v>
       </c>
     </row>
     <row r="1754" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1754">
-        <v>37197</v>
+        <v>37191</v>
       </c>
       <c r="B1754" t="s">
-        <v>1521</v>
+        <v>587</v>
       </c>
       <c r="C1754" t="s">
         <v>1439</v>
       </c>
       <c r="E1754">
         <v>0</v>
+      </c>
+      <c r="F1754">
+        <v>1</v>
       </c>
     </row>
     <row r="1755" spans="1:7" x14ac:dyDescent="0.5">
@@ -44539,6 +45478,9 @@
       <c r="E1755">
         <v>1</v>
       </c>
+      <c r="F1755">
+        <v>1</v>
+      </c>
       <c r="G1755" t="s">
         <v>10</v>
       </c>
@@ -47071,13 +48013,16 @@
       <c r="E1902">
         <v>0</v>
       </c>
+      <c r="F1902">
+        <v>0</v>
+      </c>
     </row>
     <row r="1903" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1903">
-        <v>33003</v>
+        <v>33005</v>
       </c>
       <c r="B1903" t="s">
-        <v>136</v>
+        <v>1618</v>
       </c>
       <c r="C1903" t="s">
         <v>1617</v>
@@ -47085,13 +48030,16 @@
       <c r="E1903">
         <v>0</v>
       </c>
+      <c r="F1903">
+        <v>0</v>
+      </c>
     </row>
     <row r="1904" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1904">
-        <v>33005</v>
+        <v>33009</v>
       </c>
       <c r="B1904" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="C1904" t="s">
         <v>1617</v>
@@ -47099,13 +48047,16 @@
       <c r="E1904">
         <v>0</v>
       </c>
+      <c r="F1904">
+        <v>0</v>
+      </c>
     </row>
     <row r="1905" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1905">
-        <v>33007</v>
+        <v>33011</v>
       </c>
       <c r="B1905" t="s">
-        <v>1619</v>
+        <v>439</v>
       </c>
       <c r="C1905" t="s">
         <v>1617</v>
@@ -47113,13 +48064,16 @@
       <c r="E1905">
         <v>0</v>
       </c>
+      <c r="F1905">
+        <v>0</v>
+      </c>
     </row>
     <row r="1906" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1906">
-        <v>33009</v>
+        <v>33013</v>
       </c>
       <c r="B1906" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="C1906" t="s">
         <v>1617</v>
@@ -47127,13 +48081,16 @@
       <c r="E1906">
         <v>0</v>
       </c>
+      <c r="F1906">
+        <v>0</v>
+      </c>
     </row>
     <row r="1907" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1907">
-        <v>33011</v>
+        <v>33015</v>
       </c>
       <c r="B1907" t="s">
-        <v>439</v>
+        <v>1506</v>
       </c>
       <c r="C1907" t="s">
         <v>1617</v>
@@ -47141,13 +48098,16 @@
       <c r="E1907">
         <v>0</v>
       </c>
+      <c r="F1907">
+        <v>0</v>
+      </c>
     </row>
     <row r="1908" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1908">
-        <v>33013</v>
+        <v>33019</v>
       </c>
       <c r="B1908" t="s">
-        <v>1621</v>
+        <v>845</v>
       </c>
       <c r="C1908" t="s">
         <v>1617</v>
@@ -47155,13 +48115,16 @@
       <c r="E1908">
         <v>0</v>
       </c>
+      <c r="F1908">
+        <v>0</v>
+      </c>
     </row>
     <row r="1909" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1909">
-        <v>33015</v>
+        <v>33003</v>
       </c>
       <c r="B1909" t="s">
-        <v>1506</v>
+        <v>136</v>
       </c>
       <c r="C1909" t="s">
         <v>1617</v>
@@ -47169,64 +48132,73 @@
       <c r="E1909">
         <v>0</v>
       </c>
+      <c r="F1909">
+        <v>1</v>
+      </c>
     </row>
     <row r="1910" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1910">
-        <v>33017</v>
+        <v>33007</v>
       </c>
       <c r="B1910" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="C1910" t="s">
         <v>1617</v>
       </c>
-      <c r="D1910" t="s">
-        <v>1623</v>
-      </c>
       <c r="E1910">
-        <v>1</v>
-      </c>
-      <c r="G1910" t="s">
-        <v>130</v>
+        <v>0</v>
+      </c>
+      <c r="F1910">
+        <v>1</v>
       </c>
     </row>
     <row r="1911" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1911">
-        <v>33019</v>
+        <v>33017</v>
       </c>
       <c r="B1911" t="s">
-        <v>845</v>
+        <v>1622</v>
       </c>
       <c r="C1911" t="s">
         <v>1617</v>
       </c>
+      <c r="D1911" t="s">
+        <v>1623</v>
+      </c>
       <c r="E1911">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F1911">
+        <v>1</v>
+      </c>
+      <c r="G1911" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="1912" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1912">
-        <v>34001</v>
+        <v>34005</v>
       </c>
       <c r="B1912" t="s">
-        <v>1624</v>
+        <v>1627</v>
       </c>
       <c r="C1912" t="s">
         <v>1625</v>
       </c>
-      <c r="D1912" t="s">
-        <v>10</v>
-      </c>
       <c r="E1912">
         <v>0</v>
+      </c>
+      <c r="F1912">
+        <v>1</v>
       </c>
     </row>
     <row r="1913" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1913">
-        <v>34003</v>
+        <v>34009</v>
       </c>
       <c r="B1913" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
       <c r="C1913" t="s">
         <v>1625</v>
@@ -47234,13 +48206,16 @@
       <c r="E1913">
         <v>0</v>
       </c>
+      <c r="F1913">
+        <v>1</v>
+      </c>
     </row>
     <row r="1914" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1914">
-        <v>34005</v>
+        <v>34011</v>
       </c>
       <c r="B1914" t="s">
-        <v>1627</v>
+        <v>732</v>
       </c>
       <c r="C1914" t="s">
         <v>1625</v>
@@ -47248,27 +48223,39 @@
       <c r="E1914">
         <v>0</v>
       </c>
+      <c r="F1914">
+        <v>1</v>
+      </c>
     </row>
     <row r="1915" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1915">
-        <v>34007</v>
+        <v>34019</v>
       </c>
       <c r="B1915" t="s">
-        <v>497</v>
+        <v>1631</v>
       </c>
       <c r="C1915" t="s">
         <v>1625</v>
       </c>
+      <c r="D1915" t="s">
+        <v>1632</v>
+      </c>
       <c r="E1915">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F1915">
+        <v>1</v>
+      </c>
+      <c r="G1915" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1916" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1916">
-        <v>34009</v>
+        <v>34023</v>
       </c>
       <c r="B1916" t="s">
-        <v>1628</v>
+        <v>392</v>
       </c>
       <c r="C1916" t="s">
         <v>1625</v>
@@ -47276,55 +48263,85 @@
       <c r="E1916">
         <v>0</v>
       </c>
+      <c r="F1916">
+        <v>1</v>
+      </c>
     </row>
     <row r="1917" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1917">
-        <v>34011</v>
+        <v>34025</v>
       </c>
       <c r="B1917" t="s">
-        <v>732</v>
+        <v>1633</v>
       </c>
       <c r="C1917" t="s">
         <v>1625</v>
       </c>
+      <c r="D1917" t="s">
+        <v>1634</v>
+      </c>
       <c r="E1917">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F1917">
+        <v>1</v>
+      </c>
+      <c r="G1917" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1918" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1918">
-        <v>34013</v>
+        <v>34029</v>
       </c>
       <c r="B1918" t="s">
-        <v>1096</v>
+        <v>1635</v>
       </c>
       <c r="C1918" t="s">
         <v>1625</v>
       </c>
+      <c r="D1918" t="s">
+        <v>1636</v>
+      </c>
       <c r="E1918">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F1918">
+        <v>1</v>
+      </c>
+      <c r="G1918" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1919" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1919">
-        <v>34015</v>
+        <v>34033</v>
       </c>
       <c r="B1919" t="s">
-        <v>1629</v>
+        <v>1638</v>
       </c>
       <c r="C1919" t="s">
         <v>1625</v>
       </c>
+      <c r="D1919" t="s">
+        <v>1639</v>
+      </c>
       <c r="E1919">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F1919">
+        <v>1</v>
+      </c>
+      <c r="G1919" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="1920" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1920">
-        <v>34017</v>
+        <v>34037</v>
       </c>
       <c r="B1920" t="s">
-        <v>1630</v>
+        <v>405</v>
       </c>
       <c r="C1920" t="s">
         <v>1625</v>
@@ -47332,21 +48349,27 @@
       <c r="E1920">
         <v>0</v>
       </c>
+      <c r="F1920">
+        <v>1</v>
+      </c>
     </row>
     <row r="1921" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1921">
-        <v>34019</v>
+        <v>34041</v>
       </c>
       <c r="B1921" t="s">
-        <v>1631</v>
+        <v>586</v>
       </c>
       <c r="C1921" t="s">
         <v>1625</v>
       </c>
       <c r="D1921" t="s">
-        <v>1632</v>
+        <v>1641</v>
       </c>
       <c r="E1921">
+        <v>1</v>
+      </c>
+      <c r="F1921">
         <v>1</v>
       </c>
       <c r="G1921" t="s">
@@ -47355,24 +48378,33 @@
     </row>
     <row r="1922" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1922">
-        <v>34021</v>
+        <v>34001</v>
       </c>
       <c r="B1922" t="s">
-        <v>776</v>
+        <v>1624</v>
       </c>
       <c r="C1922" t="s">
         <v>1625</v>
       </c>
+      <c r="D1922" t="s">
+        <v>10</v>
+      </c>
       <c r="E1922">
         <v>0</v>
+      </c>
+      <c r="F1922">
+        <v>0</v>
+      </c>
+      <c r="G1922" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="1923" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1923">
-        <v>34023</v>
+        <v>34003</v>
       </c>
       <c r="B1923" t="s">
-        <v>392</v>
+        <v>1626</v>
       </c>
       <c r="C1923" t="s">
         <v>1625</v>
@@ -47380,33 +48412,39 @@
       <c r="E1923">
         <v>0</v>
       </c>
+      <c r="F1923">
+        <v>0</v>
+      </c>
+      <c r="G1923" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="1924" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1924">
-        <v>34025</v>
+        <v>34007</v>
       </c>
       <c r="B1924" t="s">
-        <v>1633</v>
+        <v>497</v>
       </c>
       <c r="C1924" t="s">
         <v>1625</v>
       </c>
-      <c r="D1924" t="s">
-        <v>1634</v>
-      </c>
       <c r="E1924">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F1924">
+        <v>0</v>
       </c>
       <c r="G1924" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
     </row>
     <row r="1925" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1925">
-        <v>34027</v>
+        <v>34013</v>
       </c>
       <c r="B1925" t="s">
-        <v>901</v>
+        <v>1096</v>
       </c>
       <c r="C1925" t="s">
         <v>1625</v>
@@ -47414,33 +48452,39 @@
       <c r="E1925">
         <v>0</v>
       </c>
+      <c r="F1925">
+        <v>0</v>
+      </c>
+      <c r="G1925" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="1926" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1926">
-        <v>34029</v>
+        <v>34015</v>
       </c>
       <c r="B1926" t="s">
-        <v>1635</v>
+        <v>1629</v>
       </c>
       <c r="C1926" t="s">
         <v>1625</v>
       </c>
-      <c r="D1926" t="s">
-        <v>1636</v>
-      </c>
       <c r="E1926">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F1926">
+        <v>0</v>
       </c>
       <c r="G1926" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
     </row>
     <row r="1927" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1927">
-        <v>34031</v>
+        <v>34017</v>
       </c>
       <c r="B1927" t="s">
-        <v>1637</v>
+        <v>1630</v>
       </c>
       <c r="C1927" t="s">
         <v>1625</v>
@@ -47448,53 +48492,59 @@
       <c r="E1927">
         <v>0</v>
       </c>
+      <c r="F1927">
+        <v>0</v>
+      </c>
+      <c r="G1927" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="1928" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1928">
-        <v>34033</v>
+        <v>34021</v>
       </c>
       <c r="B1928" t="s">
-        <v>1638</v>
+        <v>776</v>
       </c>
       <c r="C1928" t="s">
         <v>1625</v>
       </c>
-      <c r="D1928" t="s">
-        <v>1639</v>
-      </c>
       <c r="E1928">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F1928">
+        <v>0</v>
       </c>
       <c r="G1928" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
     </row>
     <row r="1929" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1929">
-        <v>34035</v>
+        <v>34027</v>
       </c>
       <c r="B1929" t="s">
-        <v>1131</v>
+        <v>901</v>
       </c>
       <c r="C1929" t="s">
         <v>1625</v>
       </c>
-      <c r="D1929" t="s">
-        <v>1640</v>
-      </c>
       <c r="E1929">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F1929">
+        <v>0</v>
       </c>
       <c r="G1929" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
     </row>
     <row r="1930" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1930">
-        <v>34037</v>
+        <v>34031</v>
       </c>
       <c r="B1930" t="s">
-        <v>405</v>
+        <v>1637</v>
       </c>
       <c r="C1930" t="s">
         <v>1625</v>
@@ -47502,39 +48552,54 @@
       <c r="E1930">
         <v>0</v>
       </c>
+      <c r="F1930">
+        <v>0</v>
+      </c>
+      <c r="G1930" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="1931" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1931">
-        <v>34039</v>
+        <v>34035</v>
       </c>
       <c r="B1931" t="s">
-        <v>182</v>
+        <v>1131</v>
       </c>
       <c r="C1931" t="s">
         <v>1625</v>
       </c>
+      <c r="D1931" t="s">
+        <v>1640</v>
+      </c>
       <c r="E1931">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F1931">
+        <v>0</v>
+      </c>
+      <c r="G1931" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="1932" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1932">
-        <v>34041</v>
+        <v>34039</v>
       </c>
       <c r="B1932" t="s">
-        <v>586</v>
+        <v>182</v>
       </c>
       <c r="C1932" t="s">
         <v>1625</v>
       </c>
-      <c r="D1932" t="s">
-        <v>1641</v>
-      </c>
       <c r="E1932">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F1932">
+        <v>0</v>
       </c>
       <c r="G1932" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
     </row>
     <row r="1933" spans="1:7" x14ac:dyDescent="0.5">
@@ -47817,7 +48882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1953" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1953" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1953">
         <v>35037</v>
       </c>
@@ -47831,7 +48896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1954" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1954" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1954">
         <v>35039</v>
       </c>
@@ -47845,7 +48910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1955" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1955" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1955">
         <v>35041</v>
       </c>
@@ -47859,7 +48924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1956" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1956" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1956">
         <v>35045</v>
       </c>
@@ -47873,7 +48938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1957" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1957" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1957">
         <v>35047</v>
       </c>
@@ -47887,7 +48952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1958" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1958" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1958">
         <v>35043</v>
       </c>
@@ -47901,7 +48966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1959" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1959" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1959">
         <v>35049</v>
       </c>
@@ -47915,7 +48980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1960" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1960" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1960">
         <v>35051</v>
       </c>
@@ -47929,7 +48994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1961" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1961" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1961">
         <v>35053</v>
       </c>
@@ -47943,7 +49008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1962" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1962" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1962">
         <v>35055</v>
       </c>
@@ -47957,7 +49022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1963" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1963" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1963">
         <v>35057</v>
       </c>
@@ -47971,7 +49036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1964" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1964" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1964">
         <v>35059</v>
       </c>
@@ -47985,7 +49050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1965" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1965" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1965">
         <v>35061</v>
       </c>
@@ -47999,7 +49064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1966" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1966" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1966">
         <v>32510</v>
       </c>
@@ -48012,8 +49077,11 @@
       <c r="E1966">
         <v>0</v>
       </c>
-    </row>
-    <row r="1967" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1966">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1967">
         <v>32001</v>
       </c>
@@ -48026,8 +49094,14 @@
       <c r="E1967">
         <v>0</v>
       </c>
-    </row>
-    <row r="1968" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="F1967">
+        <v>0</v>
+      </c>
+      <c r="G1967" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1968">
         <v>32003</v>
       </c>
@@ -48039,6 +49113,12 @@
       </c>
       <c r="E1968">
         <v>0</v>
+      </c>
+      <c r="F1968">
+        <v>0</v>
+      </c>
+      <c r="G1968" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="1969" spans="1:7" x14ac:dyDescent="0.5">
@@ -48054,6 +49134,12 @@
       <c r="E1969">
         <v>0</v>
       </c>
+      <c r="F1969">
+        <v>0</v>
+      </c>
+      <c r="G1969" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="1970" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1970">
@@ -48068,6 +49154,12 @@
       <c r="E1970">
         <v>0</v>
       </c>
+      <c r="F1970">
+        <v>0</v>
+      </c>
+      <c r="G1970" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="1971" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1971">
@@ -48082,6 +49174,12 @@
       <c r="E1971">
         <v>0</v>
       </c>
+      <c r="F1971">
+        <v>0</v>
+      </c>
+      <c r="G1971" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="1972" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1972">
@@ -48096,6 +49194,12 @@
       <c r="E1972">
         <v>0</v>
       </c>
+      <c r="F1972">
+        <v>0</v>
+      </c>
+      <c r="G1972" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="1973" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1973">
@@ -48110,6 +49214,12 @@
       <c r="E1973">
         <v>0</v>
       </c>
+      <c r="F1973">
+        <v>0</v>
+      </c>
+      <c r="G1973" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="1974" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1974">
@@ -48124,6 +49234,12 @@
       <c r="E1974">
         <v>0</v>
       </c>
+      <c r="F1974">
+        <v>0</v>
+      </c>
+      <c r="G1974" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="1975" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1975">
@@ -48138,6 +49254,12 @@
       <c r="E1975">
         <v>0</v>
       </c>
+      <c r="F1975">
+        <v>0</v>
+      </c>
+      <c r="G1975" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="1976" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1976">
@@ -48152,6 +49274,12 @@
       <c r="E1976">
         <v>0</v>
       </c>
+      <c r="F1976">
+        <v>0</v>
+      </c>
+      <c r="G1976" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="1977" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1977">
@@ -48166,6 +49294,12 @@
       <c r="E1977">
         <v>0</v>
       </c>
+      <c r="F1977">
+        <v>0</v>
+      </c>
+      <c r="G1977" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="1978" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1978">
@@ -48180,6 +49314,12 @@
       <c r="E1978">
         <v>0</v>
       </c>
+      <c r="F1978">
+        <v>0</v>
+      </c>
+      <c r="G1978" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="1979" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1979">
@@ -48194,6 +49334,12 @@
       <c r="E1979">
         <v>0</v>
       </c>
+      <c r="F1979">
+        <v>0</v>
+      </c>
+      <c r="G1979" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="1980" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1980">
@@ -48208,6 +49354,12 @@
       <c r="E1980">
         <v>0</v>
       </c>
+      <c r="F1980">
+        <v>0</v>
+      </c>
+      <c r="G1980" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="1981" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1981">
@@ -48223,6 +49375,9 @@
         <v>1677</v>
       </c>
       <c r="E1981">
+        <v>1</v>
+      </c>
+      <c r="F1981">
         <v>1</v>
       </c>
       <c r="G1981" t="s">
